--- a/INTELLIGENCE/TGT_LIST/OPAR v2.0_JOINT_TARGET_LIST_v1.3.xlsx
+++ b/INTELLIGENCE/TGT_LIST/OPAR v2.0_JOINT_TARGET_LIST_v1.3.xlsx
@@ -2944,11 +2944,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2961,6 +2956,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -2994,7 +2994,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3028,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3252,9 +3252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B125" sqref="B125"/>
+      <selection pane="topRight" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3272,16 +3272,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="71" t="s">
@@ -3322,7 +3322,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="24">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="88" t="s">
         <v>617</v>
       </c>
       <c r="B4" s="84" t="s">
@@ -3346,7 +3346,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="89" t="s">
         <v>618</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3370,7 +3370,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="90" t="s">
         <v>619</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -3394,7 +3394,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="89" t="s">
         <v>620</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -3418,7 +3418,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="24">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="90" t="s">
         <v>621</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -3442,7 +3442,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="24">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="89" t="s">
         <v>622</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -3466,7 +3466,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="90" t="s">
         <v>623</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -3490,7 +3490,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="89" t="s">
         <v>624</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -3514,7 +3514,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="90" t="s">
         <v>625</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -3538,7 +3538,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="89" t="s">
         <v>626</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -3562,7 +3562,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="90" t="s">
         <v>627</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -3586,7 +3586,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="89" t="s">
         <v>628</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -3610,7 +3610,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="90" t="s">
         <v>629</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="89" t="s">
         <v>630</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -3658,7 +3658,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="90" t="s">
         <v>631</v>
       </c>
       <c r="B18" s="24" t="s">
@@ -3682,7 +3682,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="89" t="s">
         <v>632</v>
       </c>
       <c r="B19" s="26" t="s">
@@ -3706,7 +3706,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="90" t="s">
         <v>633</v>
       </c>
       <c r="B20" s="24" t="s">
@@ -3730,7 +3730,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="89" t="s">
         <v>634</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -3757,7 +3757,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="24">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="90" t="s">
         <v>635</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -3781,7 +3781,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="24">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="89" t="s">
         <v>636</v>
       </c>
       <c r="B23" s="29" t="s">
@@ -3805,7 +3805,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="90" t="s">
         <v>637</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -3829,7 +3829,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="24">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="89" t="s">
         <v>638</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -3853,7 +3853,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="90" t="s">
         <v>639</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -3877,7 +3877,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="89" t="s">
         <v>640</v>
       </c>
       <c r="B27" s="26" t="s">
@@ -3901,7 +3901,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="90" t="s">
         <v>641</v>
       </c>
       <c r="B28" s="24" t="s">
@@ -3925,7 +3925,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="89" t="s">
         <v>642</v>
       </c>
       <c r="B29" s="26" t="s">
@@ -3949,7 +3949,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="90" t="s">
         <v>643</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -4117,7 +4117,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="89" t="s">
         <v>650</v>
       </c>
       <c r="B37" s="22" t="s">
@@ -4141,7 +4141,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="90" t="s">
         <v>651</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -4237,7 +4237,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="90" t="s">
         <v>655</v>
       </c>
       <c r="B42" s="35" t="s">
@@ -4261,7 +4261,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="89" t="s">
         <v>656</v>
       </c>
       <c r="B43" s="22" t="s">
@@ -4285,7 +4285,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="90" t="s">
         <v>657</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -4567,7 +4567,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="93" t="s">
+      <c r="A56" s="90" t="s">
         <v>669</v>
       </c>
       <c r="B56" s="18" t="s">
@@ -4663,7 +4663,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="90" t="s">
         <v>673</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -4687,7 +4687,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="89" t="s">
         <v>674</v>
       </c>
       <c r="B61" s="19" t="s">
@@ -4711,7 +4711,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="90" t="s">
         <v>675</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -4735,7 +4735,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="92" t="s">
+      <c r="A63" s="89" t="s">
         <v>676</v>
       </c>
       <c r="B63" s="19" t="s">
@@ -4759,7 +4759,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="90" t="s">
         <v>677</v>
       </c>
       <c r="B64" s="15" t="s">
@@ -4879,7 +4879,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="89" t="s">
         <v>682</v>
       </c>
       <c r="B69" s="22" t="s">
@@ -4903,7 +4903,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A70" s="93" t="s">
+      <c r="A70" s="90" t="s">
         <v>683</v>
       </c>
       <c r="B70" s="18" t="s">
@@ -4927,7 +4927,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A71" s="92" t="s">
+      <c r="A71" s="89" t="s">
         <v>684</v>
       </c>
       <c r="B71" s="22" t="s">
@@ -4951,7 +4951,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A72" s="93" t="s">
+      <c r="A72" s="90" t="s">
         <v>685</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -4975,7 +4975,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="89" t="s">
         <v>686</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -5023,7 +5023,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A75" s="92" t="s">
+      <c r="A75" s="89" t="s">
         <v>688</v>
       </c>
       <c r="B75" s="22" t="s">
@@ -5047,7 +5047,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A76" s="93" t="s">
+      <c r="A76" s="90" t="s">
         <v>689</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -5071,7 +5071,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="89" t="s">
         <v>690</v>
       </c>
       <c r="B77" s="22" t="s">
@@ -5095,7 +5095,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="90" t="s">
         <v>691</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -5359,7 +5359,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A89" s="92" t="s">
+      <c r="A89" s="89" t="s">
         <v>702</v>
       </c>
       <c r="B89" s="22" t="s">
@@ -5407,7 +5407,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="89" t="s">
         <v>704</v>
       </c>
       <c r="B91" s="22" t="s">
@@ -5431,7 +5431,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="90" t="s">
         <v>705</v>
       </c>
       <c r="B92" s="18" t="s">
@@ -5479,7 +5479,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A94" s="93" t="s">
+      <c r="A94" s="90" t="s">
         <v>707</v>
       </c>
       <c r="B94" s="15" t="s">
@@ -5551,7 +5551,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A97" s="92" t="s">
+      <c r="A97" s="89" t="s">
         <v>710</v>
       </c>
       <c r="B97" s="22" t="s">
@@ -5647,7 +5647,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="24">
-      <c r="A101" s="92" t="s">
+      <c r="A101" s="89" t="s">
         <v>714</v>
       </c>
       <c r="B101" s="22" t="s">
@@ -5767,7 +5767,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A106" s="93" t="s">
+      <c r="A106" s="90" t="s">
         <v>719</v>
       </c>
       <c r="B106" s="18" t="s">
@@ -6449,7 +6449,7 @@
       <c r="H137" s="65"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A138" s="94" t="s">
+      <c r="A138" s="91" t="s">
         <v>751</v>
       </c>
       <c r="B138" s="66" t="s">
@@ -12848,9 +12848,11 @@
     <hyperlink ref="A78" r:id="rId51"/>
     <hyperlink ref="A94" r:id="rId52"/>
     <hyperlink ref="A138" r:id="rId53"/>
+    <hyperlink ref="A61" r:id="rId54"/>
+    <hyperlink ref="A64" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId54"/>
-  <drawing r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId56"/>
+  <drawing r:id="rId57"/>
 </worksheet>
 </file>
--- a/INTELLIGENCE/TGT_LIST/OPAR v2.0_JOINT_TARGET_LIST_v1.3.xlsx
+++ b/INTELLIGENCE/TGT_LIST/OPAR v2.0_JOINT_TARGET_LIST_v1.3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frode\Documents\Flysim\Smartgit\OPAR-Brief\INTELLIGENCE\TGT_LIST\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46A124F-5343-47E4-9928-9843DD5CA9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Target List" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="773">
   <si>
     <t>OP ACTIVE RESOLVE JOINT TARGET LIST</t>
   </si>
@@ -2320,16 +2326,34 @@
   </si>
   <si>
     <t xml:space="preserve">Current as of: Version 1.3 </t>
+  </si>
+  <si>
+    <t>SYTGT137</t>
+  </si>
+  <si>
+    <t>SYTGT136</t>
+  </si>
+  <si>
+    <t>South Aleppo Rocket Fuel Factgory</t>
+  </si>
+  <si>
+    <t>XXXX Ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N36 09.381 </t>
+  </si>
+  <si>
+    <t>E037 06.600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2887,14 +2911,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2953,14 +2969,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -2994,7 +3020,7 @@
         <xdr:cNvPr id="2" name="image3.png" descr="Patch_wip3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3054,7 @@
         <xdr:cNvPr id="3" name="image4.png" descr="OPAR JFACC logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,104 +3275,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A64" sqref="A64"/>
+      <selection pane="topRight" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="27.69921875" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="7" max="7" width="6.69921875" customWidth="1"/>
     <col min="8" max="8" width="53.5" customWidth="1"/>
     <col min="9" max="9" width="35" customWidth="1"/>
     <col min="10" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="94"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="71" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
+    </row>
+    <row r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="67" t="s">
         <v>766</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24">
-      <c r="A4" s="88" t="s">
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
         <v>617</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="72">
         <v>2</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="84" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="89" t="s">
+    <row r="5" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
         <v>618</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -3369,8 +3395,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="90" t="s">
+    <row r="6" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="86" t="s">
         <v>619</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -3389,12 +3415,12 @@
       <c r="G6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="83" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="89" t="s">
+    <row r="7" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="85" t="s">
         <v>620</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -3417,8 +3443,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24">
-      <c r="A8" s="90" t="s">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
         <v>621</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -3437,12 +3463,12 @@
       <c r="G8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="83" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24">
-      <c r="A9" s="89" t="s">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
         <v>622</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -3465,8 +3491,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="90" t="s">
+    <row r="10" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
         <v>623</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -3485,12 +3511,12 @@
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="83" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
-      <c r="A11" s="89" t="s">
+    <row r="11" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
         <v>624</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -3513,8 +3539,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="90" t="s">
+    <row r="12" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="86" t="s">
         <v>625</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -3533,12 +3559,12 @@
       <c r="G12" s="11">
         <v>2484</v>
       </c>
-      <c r="H12" s="87" t="s">
+      <c r="H12" s="83" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
         <v>626</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -3561,8 +3587,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="90" t="s">
+    <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="86" t="s">
         <v>627</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -3581,12 +3607,12 @@
       <c r="G14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="87" t="s">
+      <c r="H14" s="83" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="89" t="s">
+    <row r="15" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="85" t="s">
         <v>628</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -3609,8 +3635,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="90" t="s">
+    <row r="16" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="86" t="s">
         <v>629</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -3629,12 +3655,12 @@
       <c r="G16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="83" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25">
-      <c r="A17" s="89" t="s">
+    <row r="17" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="85" t="s">
         <v>630</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -3657,8 +3683,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25">
-      <c r="A18" s="90" t="s">
+    <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="86" t="s">
         <v>631</v>
       </c>
       <c r="B18" s="24" t="s">
@@ -3677,12 +3703,12 @@
       <c r="G18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="87" t="s">
+      <c r="H18" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25">
-      <c r="A19" s="89" t="s">
+    <row r="19" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="85" t="s">
         <v>632</v>
       </c>
       <c r="B19" s="26" t="s">
@@ -3705,8 +3731,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25">
-      <c r="A20" s="90" t="s">
+    <row r="20" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="86" t="s">
         <v>633</v>
       </c>
       <c r="B20" s="24" t="s">
@@ -3725,12 +3751,12 @@
       <c r="G20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="87" t="s">
+      <c r="H20" s="83" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="85" t="s">
         <v>634</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -3756,8 +3782,8 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="24">
-      <c r="A22" s="90" t="s">
+    <row r="22" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="86" t="s">
         <v>635</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -3776,12 +3802,12 @@
       <c r="G22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="87" t="s">
+      <c r="H22" s="83" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="24">
-      <c r="A23" s="89" t="s">
+    <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="85" t="s">
         <v>636</v>
       </c>
       <c r="B23" s="29" t="s">
@@ -3804,8 +3830,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25">
-      <c r="A24" s="90" t="s">
+    <row r="24" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="86" t="s">
         <v>637</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -3824,12 +3850,12 @@
       <c r="G24" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="87" t="s">
+      <c r="H24" s="83" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="24">
-      <c r="A25" s="89" t="s">
+    <row r="25" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="85" t="s">
         <v>638</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -3852,8 +3878,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25">
-      <c r="A26" s="90" t="s">
+    <row r="26" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="86" t="s">
         <v>639</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -3872,12 +3898,12 @@
       <c r="G26" s="11">
         <v>1352</v>
       </c>
-      <c r="H26" s="87" t="s">
+      <c r="H26" s="83" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25">
-      <c r="A27" s="89" t="s">
+    <row r="27" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="85" t="s">
         <v>640</v>
       </c>
       <c r="B27" s="26" t="s">
@@ -3900,8 +3926,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="90" t="s">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="86" t="s">
         <v>641</v>
       </c>
       <c r="B28" s="24" t="s">
@@ -3920,12 +3946,12 @@
       <c r="G28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="87" t="s">
+      <c r="H28" s="83" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="89" t="s">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="85" t="s">
         <v>642</v>
       </c>
       <c r="B29" s="26" t="s">
@@ -3948,8 +3974,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="90" t="s">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="86" t="s">
         <v>643</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -3968,11 +3994,11 @@
       <c r="G30" s="11">
         <v>2644</v>
       </c>
-      <c r="H30" s="87" t="s">
+      <c r="H30" s="83" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>644</v>
       </c>
@@ -3996,7 +4022,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>645</v>
       </c>
@@ -4016,11 +4042,11 @@
       <c r="G32" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H32" s="87" t="s">
+      <c r="H32" s="83" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
         <v>646</v>
       </c>
@@ -4044,7 +4070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="27.75" customHeight="1">
+    <row r="34" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
         <v>647</v>
       </c>
@@ -4064,11 +4090,11 @@
       <c r="G34" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H34" s="87" t="s">
+      <c r="H34" s="83" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
         <v>648</v>
       </c>
@@ -4092,7 +4118,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="27" customHeight="1">
+    <row r="36" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>649</v>
       </c>
@@ -4112,12 +4138,12 @@
       <c r="G36" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H36" s="87" t="s">
+      <c r="H36" s="83" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A37" s="89" t="s">
+    <row r="37" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="85" t="s">
         <v>650</v>
       </c>
       <c r="B37" s="22" t="s">
@@ -4140,8 +4166,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A38" s="90" t="s">
+    <row r="38" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="86" t="s">
         <v>651</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -4160,11 +4186,11 @@
       <c r="G38" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H38" s="87" t="s">
+      <c r="H38" s="83" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
         <v>652</v>
       </c>
@@ -4188,7 +4214,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
         <v>653</v>
       </c>
@@ -4208,11 +4234,11 @@
       <c r="G40" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="87" t="s">
+      <c r="H40" s="83" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
         <v>654</v>
       </c>
@@ -4236,8 +4262,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="90" t="s">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="86" t="s">
         <v>655</v>
       </c>
       <c r="B42" s="35" t="s">
@@ -4256,12 +4282,12 @@
       <c r="G42" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="H42" s="87" t="s">
+      <c r="H42" s="83" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="89" t="s">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="85" t="s">
         <v>656</v>
       </c>
       <c r="B43" s="22" t="s">
@@ -4284,8 +4310,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="90" t="s">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="86" t="s">
         <v>657</v>
       </c>
       <c r="B44" s="18" t="s">
@@ -4304,11 +4330,11 @@
       <c r="G44" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="87" t="s">
+      <c r="H44" s="83" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="s">
         <v>658</v>
       </c>
@@ -4332,7 +4358,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>659</v>
       </c>
@@ -4352,11 +4378,11 @@
       <c r="G46" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="H46" s="87" t="s">
+      <c r="H46" s="83" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
         <v>660</v>
       </c>
@@ -4380,7 +4406,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>661</v>
       </c>
@@ -4400,11 +4426,11 @@
       <c r="G48" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H48" s="87" t="s">
+      <c r="H48" s="83" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
         <v>662</v>
       </c>
@@ -4428,7 +4454,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
         <v>663</v>
       </c>
@@ -4448,11 +4474,11 @@
       <c r="G50" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H50" s="87" t="s">
+      <c r="H50" s="83" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
         <v>664</v>
       </c>
@@ -4476,7 +4502,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>665</v>
       </c>
@@ -4490,11 +4516,11 @@
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="87" t="s">
+      <c r="H52" s="83" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
         <v>666</v>
       </c>
@@ -4518,7 +4544,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>667</v>
       </c>
@@ -4538,11 +4564,11 @@
       <c r="G54" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="H54" s="87" t="s">
+      <c r="H54" s="83" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="58" t="s">
         <v>668</v>
       </c>
@@ -4566,8 +4592,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="90" t="s">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="86" t="s">
         <v>669</v>
       </c>
       <c r="B56" s="18" t="s">
@@ -4586,11 +4612,11 @@
       <c r="G56" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="H56" s="87" t="s">
+      <c r="H56" s="83" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="58" t="s">
         <v>670</v>
       </c>
@@ -4614,7 +4640,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>671</v>
       </c>
@@ -4634,11 +4660,11 @@
       <c r="G58" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H58" s="87" t="s">
+      <c r="H58" s="83" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
         <v>672</v>
       </c>
@@ -4662,8 +4688,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="90" t="s">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="86" t="s">
         <v>673</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -4682,12 +4708,12 @@
       <c r="G60" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H60" s="87" t="s">
+      <c r="H60" s="83" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="89" t="s">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="85" t="s">
         <v>674</v>
       </c>
       <c r="B61" s="19" t="s">
@@ -4710,8 +4736,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A62" s="90" t="s">
+    <row r="62" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="86" t="s">
         <v>675</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -4730,12 +4756,12 @@
       <c r="G62" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="H62" s="87" t="s">
+      <c r="H62" s="83" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="89" t="s">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="85" t="s">
         <v>676</v>
       </c>
       <c r="B63" s="19" t="s">
@@ -4758,8 +4784,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="90" t="s">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="86" t="s">
         <v>677</v>
       </c>
       <c r="B64" s="15" t="s">
@@ -4778,11 +4804,11 @@
       <c r="G64" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="H64" s="87" t="s">
+      <c r="H64" s="83" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="37.5" customHeight="1">
+    <row r="65" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
         <v>678</v>
       </c>
@@ -4806,7 +4832,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" customHeight="1">
+    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
         <v>679</v>
       </c>
@@ -4826,11 +4852,11 @@
       <c r="G66" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="H66" s="87" t="s">
+      <c r="H66" s="83" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="58" t="s">
         <v>680</v>
       </c>
@@ -4854,7 +4880,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
         <v>681</v>
       </c>
@@ -4874,12 +4900,12 @@
       <c r="G68" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H68" s="87" t="s">
+      <c r="H68" s="83" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A69" s="89" t="s">
+    <row r="69" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="85" t="s">
         <v>682</v>
       </c>
       <c r="B69" s="22" t="s">
@@ -4902,8 +4928,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A70" s="90" t="s">
+    <row r="70" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="86" t="s">
         <v>683</v>
       </c>
       <c r="B70" s="18" t="s">
@@ -4922,12 +4948,12 @@
       <c r="G70" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H70" s="87" t="s">
+      <c r="H70" s="83" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A71" s="89" t="s">
+    <row r="71" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="85" t="s">
         <v>684</v>
       </c>
       <c r="B71" s="22" t="s">
@@ -4950,8 +4976,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A72" s="90" t="s">
+    <row r="72" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="86" t="s">
         <v>685</v>
       </c>
       <c r="B72" s="18" t="s">
@@ -4970,12 +4996,12 @@
       <c r="G72" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="H72" s="87" t="s">
+      <c r="H72" s="83" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A73" s="89" t="s">
+    <row r="73" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="85" t="s">
         <v>686</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4998,7 +5024,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="29.25" customHeight="1">
+    <row r="74" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
         <v>687</v>
       </c>
@@ -5018,12 +5044,12 @@
       <c r="G74" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="H74" s="87" t="s">
+      <c r="H74" s="83" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A75" s="89" t="s">
+    <row r="75" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="85" t="s">
         <v>688</v>
       </c>
       <c r="B75" s="22" t="s">
@@ -5046,8 +5072,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A76" s="90" t="s">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="86" t="s">
         <v>689</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -5066,12 +5092,12 @@
       <c r="G76" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="H76" s="87" t="s">
+      <c r="H76" s="83" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A77" s="89" t="s">
+    <row r="77" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="85" t="s">
         <v>690</v>
       </c>
       <c r="B77" s="22" t="s">
@@ -5094,8 +5120,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A78" s="90" t="s">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="86" t="s">
         <v>691</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -5114,11 +5140,11 @@
       <c r="G78" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="H78" s="87" t="s">
+      <c r="H78" s="83" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="58" t="s">
         <v>692</v>
       </c>
@@ -5142,7 +5168,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
         <v>693</v>
       </c>
@@ -5162,11 +5188,11 @@
       <c r="G80" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="H80" s="87" t="s">
+      <c r="H80" s="83" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="58" t="s">
         <v>694</v>
       </c>
@@ -5190,7 +5216,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
         <v>695</v>
       </c>
@@ -5210,11 +5236,11 @@
       <c r="G82" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="H82" s="87" t="s">
+      <c r="H82" s="83" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="58" t="s">
         <v>696</v>
       </c>
@@ -5238,7 +5264,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
         <v>697</v>
       </c>
@@ -5258,11 +5284,11 @@
       <c r="G84" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="H84" s="87" t="s">
+      <c r="H84" s="83" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="58" t="s">
         <v>698</v>
       </c>
@@ -5286,7 +5312,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="57" t="s">
         <v>699</v>
       </c>
@@ -5306,11 +5332,11 @@
       <c r="G86" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="H86" s="87" t="s">
+      <c r="H86" s="83" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="58" t="s">
         <v>700</v>
       </c>
@@ -5334,7 +5360,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
         <v>701</v>
       </c>
@@ -5354,12 +5380,12 @@
       <c r="G88" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="H88" s="87" t="s">
+      <c r="H88" s="83" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A89" s="89" t="s">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="85" t="s">
         <v>702</v>
       </c>
       <c r="B89" s="22" t="s">
@@ -5368,7 +5394,7 @@
       <c r="C89" s="27">
         <v>2</v>
       </c>
-      <c r="D89" s="85"/>
+      <c r="D89" s="81"/>
       <c r="E89" s="22" t="s">
         <v>415</v>
       </c>
@@ -5382,7 +5408,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
         <v>703</v>
       </c>
@@ -5402,12 +5428,12 @@
       <c r="G90" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="H90" s="87" t="s">
+      <c r="H90" s="83" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A91" s="89" t="s">
+    <row r="91" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="85" t="s">
         <v>704</v>
       </c>
       <c r="B91" s="22" t="s">
@@ -5430,8 +5456,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A92" s="90" t="s">
+    <row r="92" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="86" t="s">
         <v>705</v>
       </c>
       <c r="B92" s="18" t="s">
@@ -5450,11 +5476,11 @@
       <c r="G92" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="H92" s="87" t="s">
+      <c r="H92" s="83" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="58" t="s">
         <v>706</v>
       </c>
@@ -5478,8 +5504,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A94" s="90" t="s">
+    <row r="94" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="86" t="s">
         <v>707</v>
       </c>
       <c r="B94" s="15" t="s">
@@ -5498,11 +5524,11 @@
       <c r="G94" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="H94" s="87" t="s">
+      <c r="H94" s="83" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="58" t="s">
         <v>708</v>
       </c>
@@ -5526,7 +5552,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="26.25" customHeight="1">
+    <row r="96" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="57" t="s">
         <v>709</v>
       </c>
@@ -5546,12 +5572,12 @@
       <c r="G96" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="H96" s="87" t="s">
+      <c r="H96" s="83" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A97" s="89" t="s">
+    <row r="97" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="85" t="s">
         <v>710</v>
       </c>
       <c r="B97" s="22" t="s">
@@ -5560,7 +5586,7 @@
       <c r="C97" s="40">
         <v>3</v>
       </c>
-      <c r="D97" s="85"/>
+      <c r="D97" s="81"/>
       <c r="E97" s="22" t="s">
         <v>453</v>
       </c>
@@ -5574,7 +5600,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="57" t="s">
         <v>711</v>
       </c>
@@ -5594,11 +5620,11 @@
       <c r="G98" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H98" s="87" t="s">
+      <c r="H98" s="83" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="58" t="s">
         <v>712</v>
       </c>
@@ -5622,7 +5648,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="57" t="s">
         <v>713</v>
       </c>
@@ -5642,12 +5668,12 @@
       <c r="G100" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="H100" s="87" t="s">
+      <c r="H100" s="83" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="24">
-      <c r="A101" s="89" t="s">
+    <row r="101" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A101" s="85" t="s">
         <v>714</v>
       </c>
       <c r="B101" s="22" t="s">
@@ -5670,7 +5696,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="57" t="s">
         <v>715</v>
       </c>
@@ -5690,11 +5716,11 @@
       <c r="G102" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="H102" s="87" t="s">
+      <c r="H102" s="83" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="58" t="s">
         <v>716</v>
       </c>
@@ -5718,7 +5744,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="30.75" customHeight="1">
+    <row r="104" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="57" t="s">
         <v>717</v>
       </c>
@@ -5738,11 +5764,11 @@
       <c r="G104" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="H104" s="87" t="s">
+      <c r="H104" s="83" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="58" t="s">
         <v>718</v>
       </c>
@@ -5766,8 +5792,8 @@
         <v>492</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A106" s="90" t="s">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="86" t="s">
         <v>719</v>
       </c>
       <c r="B106" s="18" t="s">
@@ -5786,11 +5812,11 @@
       <c r="G106" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="H106" s="87" t="s">
+      <c r="H106" s="83" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="58" t="s">
         <v>720</v>
       </c>
@@ -5814,7 +5840,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="57" t="s">
         <v>721</v>
       </c>
@@ -5832,11 +5858,11 @@
       <c r="G108" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="H108" s="87" t="s">
+      <c r="H108" s="83" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="59" t="s">
         <v>722</v>
       </c>
@@ -5858,7 +5884,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="57" t="s">
         <v>723</v>
       </c>
@@ -5876,11 +5902,11 @@
       <c r="G110" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="H110" s="87" t="s">
+      <c r="H110" s="83" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="59" t="s">
         <v>724</v>
       </c>
@@ -5902,7 +5928,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="57" t="s">
         <v>725</v>
       </c>
@@ -5924,7 +5950,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="59" t="s">
         <v>726</v>
       </c>
@@ -5946,7 +5972,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="57" t="s">
         <v>727</v>
       </c>
@@ -5968,7 +5994,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="59" t="s">
         <v>728</v>
       </c>
@@ -5990,7 +6016,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="57" t="s">
         <v>729</v>
       </c>
@@ -6012,8 +6038,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A117" s="86" t="s">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="82" t="s">
         <v>730</v>
       </c>
       <c r="B117" s="44" t="s">
@@ -6032,7 +6058,7 @@
       </c>
       <c r="H117" s="62"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="57" t="s">
         <v>731</v>
       </c>
@@ -6052,7 +6078,7 @@
       </c>
       <c r="H118" s="63"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="59" t="s">
         <v>732</v>
       </c>
@@ -6074,7 +6100,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="57" t="s">
         <v>733</v>
       </c>
@@ -6096,7 +6122,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1">
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="59" t="s">
         <v>734</v>
       </c>
@@ -6118,7 +6144,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1">
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="57" t="s">
         <v>735</v>
       </c>
@@ -6140,7 +6166,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1">
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="59" t="s">
         <v>736</v>
       </c>
@@ -6162,7 +6188,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="57" t="s">
         <v>737</v>
       </c>
@@ -6184,7 +6210,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1">
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="64" t="s">
         <v>738</v>
       </c>
@@ -6206,7 +6232,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1">
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="57" t="s">
         <v>739</v>
       </c>
@@ -6228,7 +6254,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1">
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="64" t="s">
         <v>740</v>
       </c>
@@ -6248,7 +6274,7 @@
       </c>
       <c r="H127" s="65"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1">
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="57" t="s">
         <v>741</v>
       </c>
@@ -6268,7 +6294,7 @@
       </c>
       <c r="H128" s="61"/>
     </row>
-    <row r="129" spans="1:8" ht="15.75" customHeight="1">
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="64" t="s">
         <v>742</v>
       </c>
@@ -6288,7 +6314,7 @@
       </c>
       <c r="H129" s="65"/>
     </row>
-    <row r="130" spans="1:8" ht="15.75" customHeight="1">
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="57" t="s">
         <v>743</v>
       </c>
@@ -6308,7 +6334,7 @@
       </c>
       <c r="H130" s="61"/>
     </row>
-    <row r="131" spans="1:8" ht="15.75" customHeight="1">
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="64" t="s">
         <v>744</v>
       </c>
@@ -6328,7 +6354,7 @@
       </c>
       <c r="H131" s="65"/>
     </row>
-    <row r="132" spans="1:8" ht="15.75" customHeight="1">
+    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="57" t="s">
         <v>745</v>
       </c>
@@ -6348,7 +6374,7 @@
       </c>
       <c r="H132" s="61"/>
     </row>
-    <row r="133" spans="1:8" ht="15.75" customHeight="1">
+    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="64" t="s">
         <v>746</v>
       </c>
@@ -6368,7 +6394,7 @@
       </c>
       <c r="H133" s="65"/>
     </row>
-    <row r="134" spans="1:8" ht="15.75" customHeight="1">
+    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="57" t="s">
         <v>747</v>
       </c>
@@ -6388,7 +6414,7 @@
       </c>
       <c r="H134" s="61"/>
     </row>
-    <row r="135" spans="1:8" ht="15.75" customHeight="1">
+    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="64" t="s">
         <v>748</v>
       </c>
@@ -6408,7 +6434,7 @@
       </c>
       <c r="H135" s="65"/>
     </row>
-    <row r="136" spans="1:8" ht="15.75" customHeight="1">
+    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="57" t="s">
         <v>749</v>
       </c>
@@ -6428,7 +6454,7 @@
       </c>
       <c r="H136" s="61"/>
     </row>
-    <row r="137" spans="1:8" ht="15.75" customHeight="1">
+    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="64" t="s">
         <v>750</v>
       </c>
@@ -6448,45 +6474,59 @@
       </c>
       <c r="H137" s="65"/>
     </row>
-    <row r="138" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A138" s="91" t="s">
+    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="86" t="s">
         <v>751</v>
       </c>
-      <c r="B138" s="66" t="s">
+      <c r="B138" s="47" t="s">
         <v>616</v>
       </c>
-      <c r="C138" s="67"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="68" t="s">
+      <c r="C138" s="48"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="F138" s="68" t="s">
+      <c r="F138" s="49" t="s">
         <v>753</v>
       </c>
-      <c r="G138" s="69" t="s">
+      <c r="G138" s="50" t="s">
         <v>754</v>
       </c>
-      <c r="H138" s="70"/>
-    </row>
-    <row r="139" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="1:8" ht="15.75" customHeight="1">
+      <c r="H138" s="61"/>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="64" t="s">
+        <v>768</v>
+      </c>
+      <c r="B139" s="90"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="90"/>
+      <c r="E139" s="91"/>
+      <c r="F139" s="91"/>
+      <c r="G139" s="90"/>
+      <c r="H139" s="92"/>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="94" t="s">
+        <v>767</v>
+      </c>
+      <c r="B140" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="C140" s="66"/>
+      <c r="D140" s="66"/>
+      <c r="E140" s="66" t="s">
+        <v>771</v>
+      </c>
+      <c r="F140" s="66" t="s">
+        <v>772</v>
+      </c>
+      <c r="G140" s="66" t="s">
+        <v>770</v>
+      </c>
+      <c r="H140" s="93"/>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
@@ -6495,77 +6535,77 @@
       <c r="F141" s="5"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:8" ht="15.75" customHeight="1">
+    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="1:8" ht="15.75" customHeight="1">
+    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="1:8" ht="15.75" customHeight="1">
+    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1">
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1">
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1">
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="4"/>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="3"/>
@@ -6574,7 +6614,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="3"/>
@@ -6583,7 +6623,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="3"/>
@@ -6592,7 +6632,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3"/>
@@ -6601,7 +6641,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="3"/>
@@ -6610,7 +6650,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3"/>
@@ -6619,7 +6659,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="3"/>
@@ -6628,7 +6668,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="3"/>
@@ -6637,7 +6677,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="3"/>
@@ -6646,7 +6686,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="3"/>
@@ -6655,7 +6695,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="3"/>
@@ -6664,7 +6704,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
@@ -6673,7 +6713,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
@@ -6682,7 +6722,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
@@ -6691,7 +6731,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
@@ -6700,7 +6740,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
@@ -6709,7 +6749,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
@@ -6718,7 +6758,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="3"/>
@@ -6727,7 +6767,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="3"/>
@@ -6736,7 +6776,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="3"/>
@@ -6745,7 +6785,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="3"/>
@@ -6754,7 +6794,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="3"/>
@@ -6763,7 +6803,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="3"/>
@@ -6772,7 +6812,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="3"/>
@@ -6781,7 +6821,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="3"/>
@@ -6790,7 +6830,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="3"/>
@@ -6799,7 +6839,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="3"/>
@@ -6808,7 +6848,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="3"/>
@@ -6817,7 +6857,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="3"/>
@@ -6826,7 +6866,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="3"/>
@@ -6835,7 +6875,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="3"/>
@@ -6844,7 +6884,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1">
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="3"/>
@@ -6853,7 +6893,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="3"/>
@@ -6862,7 +6902,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3"/>
@@ -6871,7 +6911,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="3"/>
@@ -6880,7 +6920,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="3"/>
@@ -6889,7 +6929,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="3"/>
@@ -6898,7 +6938,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1">
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="3"/>
@@ -6907,7 +6947,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="1:7" ht="15.75" customHeight="1">
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="3"/>
@@ -6916,7 +6956,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="1:7" ht="15.75" customHeight="1">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="3"/>
@@ -6925,7 +6965,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1">
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="3"/>
@@ -6934,7 +6974,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="1:7" ht="15.75" customHeight="1">
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="3"/>
@@ -6943,7 +6983,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="1:7" ht="15.75" customHeight="1">
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="3"/>
@@ -6952,7 +6992,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="1:7" ht="15.75" customHeight="1">
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="3"/>
@@ -6961,7 +7001,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="1:7" ht="15.75" customHeight="1">
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="3"/>
@@ -6970,7 +7010,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="1:7" ht="15.75" customHeight="1">
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="3"/>
@@ -6979,7 +7019,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="1:7" ht="15.75" customHeight="1">
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="3"/>
@@ -6988,7 +7028,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="1:7" ht="15.75" customHeight="1">
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="3"/>
@@ -6997,7 +7037,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="1:7" ht="15.75" customHeight="1">
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="3"/>
@@ -7006,7 +7046,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="1:7" ht="15.75" customHeight="1">
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="3"/>
@@ -7015,7 +7055,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1">
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="3"/>
@@ -7024,7 +7064,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="1:7" ht="15.75" customHeight="1">
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="3"/>
@@ -7033,7 +7073,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="3"/>
@@ -7042,7 +7082,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1">
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="3"/>
@@ -7051,7 +7091,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="4"/>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="3"/>
@@ -7060,7 +7100,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="4"/>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="3"/>
@@ -7069,7 +7109,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="4"/>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="3"/>
@@ -7078,7 +7118,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="4"/>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="3"/>
@@ -7087,7 +7127,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="4"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="3"/>
@@ -7096,7 +7136,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="4"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="3"/>
@@ -7105,7 +7145,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="4"/>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="3"/>
@@ -7114,7 +7154,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="4"/>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="3"/>
@@ -7123,7 +7163,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="4"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3"/>
@@ -7132,7 +7172,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="4"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="3"/>
@@ -7141,7 +7181,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="4"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3"/>
@@ -7150,7 +7190,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="4"/>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3"/>
@@ -7159,7 +7199,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="4"/>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="3"/>
@@ -7168,7 +7208,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="4"/>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="3"/>
@@ -7177,7 +7217,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="4"/>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="3"/>
@@ -7186,7 +7226,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="4"/>
     </row>
-    <row r="225" spans="1:7" ht="15.75" customHeight="1">
+    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="3"/>
@@ -7195,7 +7235,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="4"/>
     </row>
-    <row r="226" spans="1:7" ht="15.75" customHeight="1">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="3"/>
@@ -7204,7 +7244,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="4"/>
     </row>
-    <row r="227" spans="1:7" ht="15.75" customHeight="1">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="3"/>
@@ -7213,7 +7253,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="4"/>
     </row>
-    <row r="228" spans="1:7" ht="15.75" customHeight="1">
+    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="3"/>
@@ -7222,7 +7262,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="4"/>
     </row>
-    <row r="229" spans="1:7" ht="15.75" customHeight="1">
+    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3"/>
@@ -7231,7 +7271,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="4"/>
     </row>
-    <row r="230" spans="1:7" ht="15.75" customHeight="1">
+    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="3"/>
@@ -7240,7 +7280,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="4"/>
     </row>
-    <row r="231" spans="1:7" ht="15.75" customHeight="1">
+    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3"/>
@@ -7249,7 +7289,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="4"/>
     </row>
-    <row r="232" spans="1:7" ht="15.75" customHeight="1">
+    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="3"/>
@@ -7258,7 +7298,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="4"/>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3"/>
@@ -7267,7 +7307,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="4"/>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1">
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="3"/>
@@ -7276,7 +7316,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="4"/>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1">
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="3"/>
@@ -7285,7 +7325,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="4"/>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1">
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="3"/>
@@ -7294,7 +7334,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="4"/>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1">
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="3"/>
@@ -7303,7 +7343,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="4"/>
     </row>
-    <row r="238" spans="1:7" ht="15.75" customHeight="1">
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="3"/>
@@ -7312,7 +7352,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="4"/>
     </row>
-    <row r="239" spans="1:7" ht="15.75" customHeight="1">
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="3"/>
@@ -7321,7 +7361,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="4"/>
     </row>
-    <row r="240" spans="1:7" ht="15.75" customHeight="1">
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="3"/>
@@ -7330,7 +7370,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="4"/>
     </row>
-    <row r="241" spans="1:7" ht="15.75" customHeight="1">
+    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="3"/>
@@ -7339,7 +7379,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="4"/>
     </row>
-    <row r="242" spans="1:7" ht="15.75" customHeight="1">
+    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="3"/>
@@ -7348,7 +7388,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="4"/>
     </row>
-    <row r="243" spans="1:7" ht="15.75" customHeight="1">
+    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="3"/>
@@ -7357,7 +7397,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="4"/>
     </row>
-    <row r="244" spans="1:7" ht="15.75" customHeight="1">
+    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="3"/>
@@ -7366,7 +7406,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="4"/>
     </row>
-    <row r="245" spans="1:7" ht="15.75" customHeight="1">
+    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="3"/>
@@ -7375,7 +7415,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="4"/>
     </row>
-    <row r="246" spans="1:7" ht="15.75" customHeight="1">
+    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3"/>
@@ -7384,7 +7424,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="4"/>
     </row>
-    <row r="247" spans="1:7" ht="15.75" customHeight="1">
+    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="3"/>
@@ -7393,7 +7433,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="4"/>
     </row>
-    <row r="248" spans="1:7" ht="15.75" customHeight="1">
+    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="3"/>
@@ -7402,7 +7442,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="4"/>
     </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1">
+    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3"/>
@@ -7411,7 +7451,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="4"/>
     </row>
-    <row r="250" spans="1:7" ht="15.75" customHeight="1">
+    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="3"/>
@@ -7420,7 +7460,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="4"/>
     </row>
-    <row r="251" spans="1:7" ht="15.75" customHeight="1">
+    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="3"/>
@@ -7429,7 +7469,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="4"/>
     </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1">
+    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="3"/>
@@ -7438,7 +7478,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="4"/>
     </row>
-    <row r="253" spans="1:7" ht="15.75" customHeight="1">
+    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3"/>
@@ -7447,7 +7487,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="4"/>
     </row>
-    <row r="254" spans="1:7" ht="15.75" customHeight="1">
+    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="3"/>
@@ -7456,7 +7496,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="4"/>
     </row>
-    <row r="255" spans="1:7" ht="15.75" customHeight="1">
+    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3"/>
@@ -7465,7 +7505,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="4"/>
     </row>
-    <row r="256" spans="1:7" ht="15.75" customHeight="1">
+    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3"/>
@@ -7474,7 +7514,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="4"/>
     </row>
-    <row r="257" spans="1:7" ht="15.75" customHeight="1">
+    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="3"/>
@@ -7483,7 +7523,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="4"/>
     </row>
-    <row r="258" spans="1:7" ht="15.75" customHeight="1">
+    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="3"/>
@@ -7492,7 +7532,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="4"/>
     </row>
-    <row r="259" spans="1:7" ht="15.75" customHeight="1">
+    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
@@ -7501,7 +7541,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="4"/>
     </row>
-    <row r="260" spans="1:7" ht="15.75" customHeight="1">
+    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
@@ -7510,7 +7550,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="4"/>
     </row>
-    <row r="261" spans="1:7" ht="15.75" customHeight="1">
+    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
@@ -7519,7 +7559,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="4"/>
     </row>
-    <row r="262" spans="1:7" ht="15.75" customHeight="1">
+    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="3"/>
@@ -7528,7 +7568,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="4"/>
     </row>
-    <row r="263" spans="1:7" ht="15.75" customHeight="1">
+    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="3"/>
@@ -7537,7 +7577,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="4"/>
     </row>
-    <row r="264" spans="1:7" ht="15.75" customHeight="1">
+    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="3"/>
@@ -7546,7 +7586,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="4"/>
     </row>
-    <row r="265" spans="1:7" ht="15.75" customHeight="1">
+    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="3"/>
@@ -7555,7 +7595,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="4"/>
     </row>
-    <row r="266" spans="1:7" ht="15.75" customHeight="1">
+    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="3"/>
@@ -7564,7 +7604,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="4"/>
     </row>
-    <row r="267" spans="1:7" ht="15.75" customHeight="1">
+    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="3"/>
@@ -7573,7 +7613,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1">
+    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="3"/>
@@ -7582,7 +7622,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="4"/>
     </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1">
+    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="3"/>
@@ -7591,7 +7631,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="4"/>
     </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1">
+    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="3"/>
@@ -7600,7 +7640,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="4"/>
     </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1">
+    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="3"/>
@@ -7609,7 +7649,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="4"/>
     </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1">
+    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
@@ -7618,7 +7658,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="4"/>
     </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1">
+    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
@@ -7627,7 +7667,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="4"/>
     </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1">
+    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
@@ -7636,7 +7676,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="4"/>
     </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1">
+    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="3"/>
@@ -7645,7 +7685,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="4"/>
     </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1">
+    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="3"/>
@@ -7654,7 +7694,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="4"/>
     </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1">
+    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="3"/>
@@ -7663,7 +7703,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="4"/>
     </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1">
+    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="3"/>
@@ -7672,7 +7712,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="4"/>
     </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1">
+    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="3"/>
@@ -7681,7 +7721,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="4"/>
     </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1">
+    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="3"/>
@@ -7690,7 +7730,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1">
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="3"/>
@@ -7699,7 +7739,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="4"/>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1">
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="3"/>
@@ -7708,7 +7748,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="4"/>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1">
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="3"/>
@@ -7717,7 +7757,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1">
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="3"/>
@@ -7726,7 +7766,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1">
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="3"/>
@@ -7735,7 +7775,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="4"/>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1">
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="3"/>
@@ -7744,7 +7784,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1">
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="3"/>
@@ -7753,7 +7793,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="4"/>
     </row>
-    <row r="288" spans="1:7" ht="15.75" customHeight="1">
+    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="3"/>
@@ -7762,7 +7802,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="4"/>
     </row>
-    <row r="289" spans="1:7" ht="15.75" customHeight="1">
+    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="3"/>
@@ -7771,7 +7811,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="4"/>
     </row>
-    <row r="290" spans="1:7" ht="15.75" customHeight="1">
+    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="3"/>
@@ -7780,7 +7820,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="4"/>
     </row>
-    <row r="291" spans="1:7" ht="15.75" customHeight="1">
+    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="3"/>
@@ -7789,7 +7829,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="4"/>
     </row>
-    <row r="292" spans="1:7" ht="15.75" customHeight="1">
+    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="3"/>
@@ -7798,7 +7838,7 @@
       <c r="F292" s="5"/>
       <c r="G292" s="4"/>
     </row>
-    <row r="293" spans="1:7" ht="15.75" customHeight="1">
+    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="3"/>
@@ -7807,7 +7847,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="4"/>
     </row>
-    <row r="294" spans="1:7" ht="15.75" customHeight="1">
+    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="3"/>
@@ -7816,7 +7856,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="4"/>
     </row>
-    <row r="295" spans="1:7" ht="15.75" customHeight="1">
+    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="3"/>
@@ -7825,7 +7865,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="4"/>
     </row>
-    <row r="296" spans="1:7" ht="15.75" customHeight="1">
+    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="3"/>
@@ -7834,7 +7874,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="4"/>
     </row>
-    <row r="297" spans="1:7" ht="15.75" customHeight="1">
+    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="3"/>
@@ -7843,7 +7883,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="4"/>
     </row>
-    <row r="298" spans="1:7" ht="15.75" customHeight="1">
+    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="3"/>
@@ -7852,7 +7892,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="4"/>
     </row>
-    <row r="299" spans="1:7" ht="15.75" customHeight="1">
+    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="3"/>
@@ -7861,7 +7901,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="4"/>
     </row>
-    <row r="300" spans="1:7" ht="15.75" customHeight="1">
+    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="3"/>
@@ -7870,7 +7910,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="4"/>
     </row>
-    <row r="301" spans="1:7" ht="15.75" customHeight="1">
+    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="3"/>
@@ -7879,7 +7919,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="4"/>
     </row>
-    <row r="302" spans="1:7" ht="15.75" customHeight="1">
+    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="3"/>
@@ -7888,7 +7928,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="4"/>
     </row>
-    <row r="303" spans="1:7" ht="15.75" customHeight="1">
+    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="3"/>
@@ -7897,7 +7937,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="4"/>
     </row>
-    <row r="304" spans="1:7" ht="15.75" customHeight="1">
+    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="3"/>
@@ -7906,7 +7946,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="4"/>
     </row>
-    <row r="305" spans="1:7" ht="15.75" customHeight="1">
+    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="3"/>
@@ -7915,7 +7955,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="4"/>
     </row>
-    <row r="306" spans="1:7" ht="15.75" customHeight="1">
+    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="3"/>
@@ -7924,7 +7964,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="4"/>
     </row>
-    <row r="307" spans="1:7" ht="15.75" customHeight="1">
+    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="3"/>
@@ -7933,7 +7973,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="4"/>
     </row>
-    <row r="308" spans="1:7" ht="15.75" customHeight="1">
+    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="3"/>
@@ -7942,7 +7982,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="4"/>
     </row>
-    <row r="309" spans="1:7" ht="15.75" customHeight="1">
+    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="3"/>
@@ -7951,7 +7991,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="4"/>
     </row>
-    <row r="310" spans="1:7" ht="15.75" customHeight="1">
+    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="3"/>
@@ -7960,4830 +8000,4830 @@
       <c r="F310" s="5"/>
       <c r="G310" s="4"/>
     </row>
-    <row r="311" spans="1:7" ht="15.75" customHeight="1">
+    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="7"/>
       <c r="D311" s="8"/>
       <c r="G311" s="8"/>
     </row>
-    <row r="312" spans="1:7" ht="15.75" customHeight="1">
+    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="7"/>
       <c r="D312" s="8"/>
       <c r="G312" s="8"/>
     </row>
-    <row r="313" spans="1:7" ht="15.75" customHeight="1">
+    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="7"/>
       <c r="D313" s="8"/>
       <c r="G313" s="8"/>
     </row>
-    <row r="314" spans="1:7" ht="15.75" customHeight="1">
+    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="7"/>
       <c r="D314" s="8"/>
       <c r="G314" s="8"/>
     </row>
-    <row r="315" spans="1:7" ht="15.75" customHeight="1">
+    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="7"/>
       <c r="D315" s="8"/>
       <c r="G315" s="8"/>
     </row>
-    <row r="316" spans="1:7" ht="15.75" customHeight="1">
+    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="7"/>
       <c r="D316" s="8"/>
       <c r="G316" s="8"/>
     </row>
-    <row r="317" spans="1:7" ht="15.75" customHeight="1">
+    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="7"/>
       <c r="D317" s="8"/>
       <c r="G317" s="8"/>
     </row>
-    <row r="318" spans="1:7" ht="15.75" customHeight="1">
+    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="7"/>
       <c r="D318" s="8"/>
       <c r="G318" s="8"/>
     </row>
-    <row r="319" spans="1:7" ht="15.75" customHeight="1">
+    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="7"/>
       <c r="D319" s="8"/>
       <c r="G319" s="8"/>
     </row>
-    <row r="320" spans="1:7" ht="15.75" customHeight="1">
+    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="7"/>
       <c r="D320" s="8"/>
       <c r="G320" s="8"/>
     </row>
-    <row r="321" spans="1:7" ht="15.75" customHeight="1">
+    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="7"/>
       <c r="D321" s="8"/>
       <c r="G321" s="8"/>
     </row>
-    <row r="322" spans="1:7" ht="15.75" customHeight="1">
+    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="7"/>
       <c r="D322" s="8"/>
       <c r="G322" s="8"/>
     </row>
-    <row r="323" spans="1:7" ht="15.75" customHeight="1">
+    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="7"/>
       <c r="D323" s="8"/>
       <c r="G323" s="8"/>
     </row>
-    <row r="324" spans="1:7" ht="15.75" customHeight="1">
+    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="7"/>
       <c r="D324" s="8"/>
       <c r="G324" s="8"/>
     </row>
-    <row r="325" spans="1:7" ht="15.75" customHeight="1">
+    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="7"/>
       <c r="D325" s="8"/>
       <c r="G325" s="8"/>
     </row>
-    <row r="326" spans="1:7" ht="15.75" customHeight="1">
+    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="7"/>
       <c r="D326" s="8"/>
       <c r="G326" s="8"/>
     </row>
-    <row r="327" spans="1:7" ht="15.75" customHeight="1">
+    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="7"/>
       <c r="D327" s="8"/>
       <c r="G327" s="8"/>
     </row>
-    <row r="328" spans="1:7" ht="15.75" customHeight="1">
+    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="7"/>
       <c r="D328" s="8"/>
       <c r="G328" s="8"/>
     </row>
-    <row r="329" spans="1:7" ht="15.75" customHeight="1">
+    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="7"/>
       <c r="D329" s="8"/>
       <c r="G329" s="8"/>
     </row>
-    <row r="330" spans="1:7" ht="15.75" customHeight="1">
+    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="7"/>
       <c r="D330" s="8"/>
       <c r="G330" s="8"/>
     </row>
-    <row r="331" spans="1:7" ht="15.75" customHeight="1">
+    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
       <c r="G331" s="8"/>
     </row>
-    <row r="332" spans="1:7" ht="15.75" customHeight="1">
+    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
       <c r="G332" s="8"/>
     </row>
-    <row r="333" spans="1:7" ht="15.75" customHeight="1">
+    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="7"/>
       <c r="D333" s="8"/>
       <c r="G333" s="8"/>
     </row>
-    <row r="334" spans="1:7" ht="15.75" customHeight="1">
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="7"/>
       <c r="D334" s="8"/>
       <c r="G334" s="8"/>
     </row>
-    <row r="335" spans="1:7" ht="15.75" customHeight="1">
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="7"/>
       <c r="D335" s="8"/>
       <c r="G335" s="8"/>
     </row>
-    <row r="336" spans="1:7" ht="15.75" customHeight="1">
+    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="7"/>
       <c r="D336" s="8"/>
       <c r="G336" s="8"/>
     </row>
-    <row r="337" spans="1:7" ht="15.75" customHeight="1">
+    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="7"/>
       <c r="D337" s="8"/>
       <c r="G337" s="8"/>
     </row>
-    <row r="338" spans="1:7" ht="15.75" customHeight="1">
+    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="7"/>
       <c r="D338" s="8"/>
       <c r="G338" s="8"/>
     </row>
-    <row r="339" spans="1:7" ht="15.75" customHeight="1">
+    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="7"/>
       <c r="D339" s="8"/>
       <c r="G339" s="8"/>
     </row>
-    <row r="340" spans="1:7" ht="15.75" customHeight="1">
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="7"/>
       <c r="D340" s="8"/>
       <c r="G340" s="8"/>
     </row>
-    <row r="341" spans="1:7" ht="15.75" customHeight="1">
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="7"/>
       <c r="D341" s="8"/>
       <c r="G341" s="8"/>
     </row>
-    <row r="342" spans="1:7" ht="15.75" customHeight="1">
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="7"/>
       <c r="D342" s="8"/>
       <c r="G342" s="8"/>
     </row>
-    <row r="343" spans="1:7" ht="15.75" customHeight="1">
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="7"/>
       <c r="D343" s="8"/>
       <c r="G343" s="8"/>
     </row>
-    <row r="344" spans="1:7" ht="15.75" customHeight="1">
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="7"/>
       <c r="D344" s="8"/>
       <c r="G344" s="8"/>
     </row>
-    <row r="345" spans="1:7" ht="15.75" customHeight="1">
+    <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="7"/>
       <c r="D345" s="8"/>
       <c r="G345" s="8"/>
     </row>
-    <row r="346" spans="1:7" ht="15.75" customHeight="1">
+    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="7"/>
       <c r="D346" s="8"/>
       <c r="G346" s="8"/>
     </row>
-    <row r="347" spans="1:7" ht="15.75" customHeight="1">
+    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="7"/>
       <c r="D347" s="8"/>
       <c r="G347" s="8"/>
     </row>
-    <row r="348" spans="1:7" ht="15.75" customHeight="1">
+    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="7"/>
       <c r="D348" s="8"/>
       <c r="G348" s="8"/>
     </row>
-    <row r="349" spans="1:7" ht="15.75" customHeight="1">
+    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="7"/>
       <c r="D349" s="8"/>
       <c r="G349" s="8"/>
     </row>
-    <row r="350" spans="1:7" ht="15.75" customHeight="1">
+    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="7"/>
       <c r="D350" s="8"/>
       <c r="G350" s="8"/>
     </row>
-    <row r="351" spans="1:7" ht="15.75" customHeight="1">
+    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="7"/>
       <c r="D351" s="8"/>
       <c r="G351" s="8"/>
     </row>
-    <row r="352" spans="1:7" ht="15.75" customHeight="1">
+    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="7"/>
       <c r="D352" s="8"/>
       <c r="G352" s="8"/>
     </row>
-    <row r="353" spans="1:7" ht="15.75" customHeight="1">
+    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="7"/>
       <c r="D353" s="8"/>
       <c r="G353" s="8"/>
     </row>
-    <row r="354" spans="1:7" ht="15.75" customHeight="1">
+    <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="7"/>
       <c r="D354" s="8"/>
       <c r="G354" s="8"/>
     </row>
-    <row r="355" spans="1:7" ht="15.75" customHeight="1">
+    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="7"/>
       <c r="D355" s="8"/>
       <c r="G355" s="8"/>
     </row>
-    <row r="356" spans="1:7" ht="15.75" customHeight="1">
+    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="7"/>
       <c r="D356" s="8"/>
       <c r="G356" s="8"/>
     </row>
-    <row r="357" spans="1:7" ht="15.75" customHeight="1">
+    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="7"/>
       <c r="D357" s="8"/>
       <c r="G357" s="8"/>
     </row>
-    <row r="358" spans="1:7" ht="15.75" customHeight="1">
+    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="7"/>
       <c r="D358" s="8"/>
       <c r="G358" s="8"/>
     </row>
-    <row r="359" spans="1:7" ht="15.75" customHeight="1">
+    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="7"/>
       <c r="D359" s="8"/>
       <c r="G359" s="8"/>
     </row>
-    <row r="360" spans="1:7" ht="15.75" customHeight="1">
+    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="7"/>
       <c r="D360" s="8"/>
       <c r="G360" s="8"/>
     </row>
-    <row r="361" spans="1:7" ht="15.75" customHeight="1">
+    <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="7"/>
       <c r="D361" s="8"/>
       <c r="G361" s="8"/>
     </row>
-    <row r="362" spans="1:7" ht="15.75" customHeight="1">
+    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="7"/>
       <c r="D362" s="8"/>
       <c r="G362" s="8"/>
     </row>
-    <row r="363" spans="1:7" ht="15.75" customHeight="1">
+    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="7"/>
       <c r="D363" s="8"/>
       <c r="G363" s="8"/>
     </row>
-    <row r="364" spans="1:7" ht="15.75" customHeight="1">
+    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="7"/>
       <c r="D364" s="8"/>
       <c r="G364" s="8"/>
     </row>
-    <row r="365" spans="1:7" ht="15.75" customHeight="1">
+    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="7"/>
       <c r="D365" s="8"/>
       <c r="G365" s="8"/>
     </row>
-    <row r="366" spans="1:7" ht="15.75" customHeight="1">
+    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="7"/>
       <c r="D366" s="8"/>
       <c r="G366" s="8"/>
     </row>
-    <row r="367" spans="1:7" ht="15.75" customHeight="1">
+    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="7"/>
       <c r="D367" s="8"/>
       <c r="G367" s="8"/>
     </row>
-    <row r="368" spans="1:7" ht="15.75" customHeight="1">
+    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="7"/>
       <c r="D368" s="8"/>
       <c r="G368" s="8"/>
     </row>
-    <row r="369" spans="1:7" ht="15.75" customHeight="1">
+    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="7"/>
       <c r="D369" s="8"/>
       <c r="G369" s="8"/>
     </row>
-    <row r="370" spans="1:7" ht="15.75" customHeight="1">
+    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="7"/>
       <c r="D370" s="8"/>
       <c r="G370" s="8"/>
     </row>
-    <row r="371" spans="1:7" ht="15.75" customHeight="1">
+    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="7"/>
       <c r="D371" s="8"/>
       <c r="G371" s="8"/>
     </row>
-    <row r="372" spans="1:7" ht="15.75" customHeight="1">
+    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="7"/>
       <c r="D372" s="8"/>
       <c r="G372" s="8"/>
     </row>
-    <row r="373" spans="1:7" ht="15.75" customHeight="1">
+    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="7"/>
       <c r="D373" s="8"/>
       <c r="G373" s="8"/>
     </row>
-    <row r="374" spans="1:7" ht="15.75" customHeight="1">
+    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="7"/>
       <c r="D374" s="8"/>
       <c r="G374" s="8"/>
     </row>
-    <row r="375" spans="1:7" ht="15.75" customHeight="1">
+    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="7"/>
       <c r="D375" s="8"/>
       <c r="G375" s="8"/>
     </row>
-    <row r="376" spans="1:7" ht="15.75" customHeight="1">
+    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="7"/>
       <c r="D376" s="8"/>
       <c r="G376" s="8"/>
     </row>
-    <row r="377" spans="1:7" ht="15.75" customHeight="1">
+    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="7"/>
       <c r="D377" s="8"/>
       <c r="G377" s="8"/>
     </row>
-    <row r="378" spans="1:7" ht="15.75" customHeight="1">
+    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="7"/>
       <c r="D378" s="8"/>
       <c r="G378" s="8"/>
     </row>
-    <row r="379" spans="1:7" ht="15.75" customHeight="1">
+    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="7"/>
       <c r="D379" s="8"/>
       <c r="G379" s="8"/>
     </row>
-    <row r="380" spans="1:7" ht="15.75" customHeight="1">
+    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="7"/>
       <c r="D380" s="8"/>
       <c r="G380" s="8"/>
     </row>
-    <row r="381" spans="1:7" ht="15.75" customHeight="1">
+    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="7"/>
       <c r="D381" s="8"/>
       <c r="G381" s="8"/>
     </row>
-    <row r="382" spans="1:7" ht="15.75" customHeight="1">
+    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="7"/>
       <c r="D382" s="8"/>
       <c r="G382" s="8"/>
     </row>
-    <row r="383" spans="1:7" ht="15.75" customHeight="1">
+    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="7"/>
       <c r="D383" s="8"/>
       <c r="G383" s="8"/>
     </row>
-    <row r="384" spans="1:7" ht="15.75" customHeight="1">
+    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="7"/>
       <c r="D384" s="8"/>
       <c r="G384" s="8"/>
     </row>
-    <row r="385" spans="1:7" ht="15.75" customHeight="1">
+    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="7"/>
       <c r="D385" s="8"/>
       <c r="G385" s="8"/>
     </row>
-    <row r="386" spans="1:7" ht="15.75" customHeight="1">
+    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="7"/>
       <c r="D386" s="8"/>
       <c r="G386" s="8"/>
     </row>
-    <row r="387" spans="1:7" ht="15.75" customHeight="1">
+    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="7"/>
       <c r="D387" s="8"/>
       <c r="G387" s="8"/>
     </row>
-    <row r="388" spans="1:7" ht="15.75" customHeight="1">
+    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="7"/>
       <c r="D388" s="8"/>
       <c r="G388" s="8"/>
     </row>
-    <row r="389" spans="1:7" ht="15.75" customHeight="1">
+    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="7"/>
       <c r="D389" s="8"/>
       <c r="G389" s="8"/>
     </row>
-    <row r="390" spans="1:7" ht="15.75" customHeight="1">
+    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="7"/>
       <c r="D390" s="8"/>
       <c r="G390" s="8"/>
     </row>
-    <row r="391" spans="1:7" ht="15.75" customHeight="1">
+    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="7"/>
       <c r="D391" s="8"/>
       <c r="G391" s="8"/>
     </row>
-    <row r="392" spans="1:7" ht="15.75" customHeight="1">
+    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="7"/>
       <c r="D392" s="8"/>
       <c r="G392" s="8"/>
     </row>
-    <row r="393" spans="1:7" ht="15.75" customHeight="1">
+    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="7"/>
       <c r="D393" s="8"/>
       <c r="G393" s="8"/>
     </row>
-    <row r="394" spans="1:7" ht="15.75" customHeight="1">
+    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="7"/>
       <c r="D394" s="8"/>
       <c r="G394" s="8"/>
     </row>
-    <row r="395" spans="1:7" ht="15.75" customHeight="1">
+    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="7"/>
       <c r="D395" s="8"/>
       <c r="G395" s="8"/>
     </row>
-    <row r="396" spans="1:7" ht="15.75" customHeight="1">
+    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="7"/>
       <c r="D396" s="8"/>
       <c r="G396" s="8"/>
     </row>
-    <row r="397" spans="1:7" ht="15.75" customHeight="1">
+    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="7"/>
       <c r="D397" s="8"/>
       <c r="G397" s="8"/>
     </row>
-    <row r="398" spans="1:7" ht="15.75" customHeight="1">
+    <row r="398" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="7"/>
       <c r="D398" s="8"/>
       <c r="G398" s="8"/>
     </row>
-    <row r="399" spans="1:7" ht="15.75" customHeight="1">
+    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="7"/>
       <c r="D399" s="8"/>
       <c r="G399" s="8"/>
     </row>
-    <row r="400" spans="1:7" ht="15.75" customHeight="1">
+    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="7"/>
       <c r="D400" s="8"/>
       <c r="G400" s="8"/>
     </row>
-    <row r="401" spans="1:7" ht="15.75" customHeight="1">
+    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="7"/>
       <c r="D401" s="8"/>
       <c r="G401" s="8"/>
     </row>
-    <row r="402" spans="1:7" ht="15.75" customHeight="1">
+    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="7"/>
       <c r="D402" s="8"/>
       <c r="G402" s="8"/>
     </row>
-    <row r="403" spans="1:7" ht="15.75" customHeight="1">
+    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="7"/>
       <c r="D403" s="8"/>
       <c r="G403" s="8"/>
     </row>
-    <row r="404" spans="1:7" ht="15.75" customHeight="1">
+    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="7"/>
       <c r="D404" s="8"/>
       <c r="G404" s="8"/>
     </row>
-    <row r="405" spans="1:7" ht="15.75" customHeight="1">
+    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="7"/>
       <c r="D405" s="8"/>
       <c r="G405" s="8"/>
     </row>
-    <row r="406" spans="1:7" ht="15.75" customHeight="1">
+    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="7"/>
       <c r="D406" s="8"/>
       <c r="G406" s="8"/>
     </row>
-    <row r="407" spans="1:7" ht="15.75" customHeight="1">
+    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="7"/>
       <c r="D407" s="8"/>
       <c r="G407" s="8"/>
     </row>
-    <row r="408" spans="1:7" ht="15.75" customHeight="1">
+    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="7"/>
       <c r="D408" s="8"/>
       <c r="G408" s="8"/>
     </row>
-    <row r="409" spans="1:7" ht="15.75" customHeight="1">
+    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="7"/>
       <c r="D409" s="8"/>
       <c r="G409" s="8"/>
     </row>
-    <row r="410" spans="1:7" ht="15.75" customHeight="1">
+    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="7"/>
       <c r="D410" s="8"/>
       <c r="G410" s="8"/>
     </row>
-    <row r="411" spans="1:7" ht="15.75" customHeight="1">
+    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="7"/>
       <c r="D411" s="8"/>
       <c r="G411" s="8"/>
     </row>
-    <row r="412" spans="1:7" ht="15.75" customHeight="1">
+    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="7"/>
       <c r="D412" s="8"/>
       <c r="G412" s="8"/>
     </row>
-    <row r="413" spans="1:7" ht="15.75" customHeight="1">
+    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="7"/>
       <c r="D413" s="8"/>
       <c r="G413" s="8"/>
     </row>
-    <row r="414" spans="1:7" ht="15.75" customHeight="1">
+    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="7"/>
       <c r="D414" s="8"/>
       <c r="G414" s="8"/>
     </row>
-    <row r="415" spans="1:7" ht="15.75" customHeight="1">
+    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="8"/>
       <c r="G415" s="8"/>
     </row>
-    <row r="416" spans="1:7" ht="15.75" customHeight="1">
+    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="8"/>
       <c r="G416" s="8"/>
     </row>
-    <row r="417" spans="1:7" ht="15.75" customHeight="1">
+    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="7"/>
       <c r="D417" s="8"/>
       <c r="G417" s="8"/>
     </row>
-    <row r="418" spans="1:7" ht="15.75" customHeight="1">
+    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="7"/>
       <c r="D418" s="8"/>
       <c r="G418" s="8"/>
     </row>
-    <row r="419" spans="1:7" ht="15.75" customHeight="1">
+    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="7"/>
       <c r="D419" s="8"/>
       <c r="G419" s="8"/>
     </row>
-    <row r="420" spans="1:7" ht="15.75" customHeight="1">
+    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="7"/>
       <c r="D420" s="8"/>
       <c r="G420" s="8"/>
     </row>
-    <row r="421" spans="1:7" ht="15.75" customHeight="1">
+    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="7"/>
       <c r="D421" s="8"/>
       <c r="G421" s="8"/>
     </row>
-    <row r="422" spans="1:7" ht="15.75" customHeight="1">
+    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="7"/>
       <c r="D422" s="8"/>
       <c r="G422" s="8"/>
     </row>
-    <row r="423" spans="1:7" ht="15.75" customHeight="1">
+    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="7"/>
       <c r="D423" s="8"/>
       <c r="G423" s="8"/>
     </row>
-    <row r="424" spans="1:7" ht="15.75" customHeight="1">
+    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="7"/>
       <c r="D424" s="8"/>
       <c r="G424" s="8"/>
     </row>
-    <row r="425" spans="1:7" ht="15.75" customHeight="1">
+    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="7"/>
       <c r="D425" s="8"/>
       <c r="G425" s="8"/>
     </row>
-    <row r="426" spans="1:7" ht="15.75" customHeight="1">
+    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="7"/>
       <c r="D426" s="8"/>
       <c r="G426" s="8"/>
     </row>
-    <row r="427" spans="1:7" ht="15.75" customHeight="1">
+    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="7"/>
       <c r="D427" s="8"/>
       <c r="G427" s="8"/>
     </row>
-    <row r="428" spans="1:7" ht="15.75" customHeight="1">
+    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="8"/>
       <c r="G428" s="8"/>
     </row>
-    <row r="429" spans="1:7" ht="15.75" customHeight="1">
+    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="8"/>
       <c r="G429" s="8"/>
     </row>
-    <row r="430" spans="1:7" ht="15.75" customHeight="1">
+    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="7"/>
       <c r="D430" s="8"/>
       <c r="G430" s="8"/>
     </row>
-    <row r="431" spans="1:7" ht="15.75" customHeight="1">
+    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="7"/>
       <c r="D431" s="8"/>
       <c r="G431" s="8"/>
     </row>
-    <row r="432" spans="1:7" ht="15.75" customHeight="1">
+    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="7"/>
       <c r="D432" s="8"/>
       <c r="G432" s="8"/>
     </row>
-    <row r="433" spans="1:7" ht="15.75" customHeight="1">
+    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="7"/>
       <c r="D433" s="8"/>
       <c r="G433" s="8"/>
     </row>
-    <row r="434" spans="1:7" ht="15.75" customHeight="1">
+    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="7"/>
       <c r="D434" s="8"/>
       <c r="G434" s="8"/>
     </row>
-    <row r="435" spans="1:7" ht="15.75" customHeight="1">
+    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="7"/>
       <c r="D435" s="8"/>
       <c r="G435" s="8"/>
     </row>
-    <row r="436" spans="1:7" ht="15.75" customHeight="1">
+    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="7"/>
       <c r="D436" s="8"/>
       <c r="G436" s="8"/>
     </row>
-    <row r="437" spans="1:7" ht="15.75" customHeight="1">
+    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="7"/>
       <c r="D437" s="8"/>
       <c r="G437" s="8"/>
     </row>
-    <row r="438" spans="1:7" ht="15.75" customHeight="1">
+    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="7"/>
       <c r="D438" s="8"/>
       <c r="G438" s="8"/>
     </row>
-    <row r="439" spans="1:7" ht="15.75" customHeight="1">
+    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="7"/>
       <c r="D439" s="8"/>
       <c r="G439" s="8"/>
     </row>
-    <row r="440" spans="1:7" ht="15.75" customHeight="1">
+    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="7"/>
       <c r="D440" s="8"/>
       <c r="G440" s="8"/>
     </row>
-    <row r="441" spans="1:7" ht="15.75" customHeight="1">
+    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="7"/>
       <c r="D441" s="8"/>
       <c r="G441" s="8"/>
     </row>
-    <row r="442" spans="1:7" ht="15.75" customHeight="1">
+    <row r="442" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="7"/>
       <c r="D442" s="8"/>
       <c r="G442" s="8"/>
     </row>
-    <row r="443" spans="1:7" ht="15.75" customHeight="1">
+    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="7"/>
       <c r="D443" s="8"/>
       <c r="G443" s="8"/>
     </row>
-    <row r="444" spans="1:7" ht="15.75" customHeight="1">
+    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="7"/>
       <c r="D444" s="8"/>
       <c r="G444" s="8"/>
     </row>
-    <row r="445" spans="1:7" ht="15.75" customHeight="1">
+    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="7"/>
       <c r="D445" s="8"/>
       <c r="G445" s="8"/>
     </row>
-    <row r="446" spans="1:7" ht="15.75" customHeight="1">
+    <row r="446" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="7"/>
       <c r="D446" s="8"/>
       <c r="G446" s="8"/>
     </row>
-    <row r="447" spans="1:7" ht="15.75" customHeight="1">
+    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="7"/>
       <c r="D447" s="8"/>
       <c r="G447" s="8"/>
     </row>
-    <row r="448" spans="1:7" ht="15.75" customHeight="1">
+    <row r="448" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="7"/>
       <c r="D448" s="8"/>
       <c r="G448" s="8"/>
     </row>
-    <row r="449" spans="1:7" ht="15.75" customHeight="1">
+    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="7"/>
       <c r="D449" s="8"/>
       <c r="G449" s="8"/>
     </row>
-    <row r="450" spans="1:7" ht="15.75" customHeight="1">
+    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="7"/>
       <c r="D450" s="8"/>
       <c r="G450" s="8"/>
     </row>
-    <row r="451" spans="1:7" ht="15.75" customHeight="1">
+    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="7"/>
       <c r="D451" s="8"/>
       <c r="G451" s="8"/>
     </row>
-    <row r="452" spans="1:7" ht="15.75" customHeight="1">
+    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="7"/>
       <c r="D452" s="8"/>
       <c r="G452" s="8"/>
     </row>
-    <row r="453" spans="1:7" ht="15.75" customHeight="1">
+    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="7"/>
       <c r="D453" s="8"/>
       <c r="G453" s="8"/>
     </row>
-    <row r="454" spans="1:7" ht="15.75" customHeight="1">
+    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="7"/>
       <c r="D454" s="8"/>
       <c r="G454" s="8"/>
     </row>
-    <row r="455" spans="1:7" ht="15.75" customHeight="1">
+    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="7"/>
       <c r="D455" s="8"/>
       <c r="G455" s="8"/>
     </row>
-    <row r="456" spans="1:7" ht="15.75" customHeight="1">
+    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="7"/>
       <c r="D456" s="8"/>
       <c r="G456" s="8"/>
     </row>
-    <row r="457" spans="1:7" ht="15.75" customHeight="1">
+    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="7"/>
       <c r="D457" s="8"/>
       <c r="G457" s="8"/>
     </row>
-    <row r="458" spans="1:7" ht="15.75" customHeight="1">
+    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="7"/>
       <c r="D458" s="8"/>
       <c r="G458" s="8"/>
     </row>
-    <row r="459" spans="1:7" ht="15.75" customHeight="1">
+    <row r="459" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="7"/>
       <c r="D459" s="8"/>
       <c r="G459" s="8"/>
     </row>
-    <row r="460" spans="1:7" ht="15.75" customHeight="1">
+    <row r="460" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="7"/>
       <c r="D460" s="8"/>
       <c r="G460" s="8"/>
     </row>
-    <row r="461" spans="1:7" ht="15.75" customHeight="1">
+    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="7"/>
       <c r="D461" s="8"/>
       <c r="G461" s="8"/>
     </row>
-    <row r="462" spans="1:7" ht="15.75" customHeight="1">
+    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="7"/>
       <c r="D462" s="8"/>
       <c r="G462" s="8"/>
     </row>
-    <row r="463" spans="1:7" ht="15.75" customHeight="1">
+    <row r="463" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="7"/>
       <c r="D463" s="8"/>
       <c r="G463" s="8"/>
     </row>
-    <row r="464" spans="1:7" ht="15.75" customHeight="1">
+    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="7"/>
       <c r="D464" s="8"/>
       <c r="G464" s="8"/>
     </row>
-    <row r="465" spans="1:7" ht="15.75" customHeight="1">
+    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="7"/>
       <c r="D465" s="8"/>
       <c r="G465" s="8"/>
     </row>
-    <row r="466" spans="1:7" ht="15.75" customHeight="1">
+    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="7"/>
       <c r="D466" s="8"/>
       <c r="G466" s="8"/>
     </row>
-    <row r="467" spans="1:7" ht="15.75" customHeight="1">
+    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="7"/>
       <c r="D467" s="8"/>
       <c r="G467" s="8"/>
     </row>
-    <row r="468" spans="1:7" ht="15.75" customHeight="1">
+    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="7"/>
       <c r="D468" s="8"/>
       <c r="G468" s="8"/>
     </row>
-    <row r="469" spans="1:7" ht="15.75" customHeight="1">
+    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="7"/>
       <c r="D469" s="8"/>
       <c r="G469" s="8"/>
     </row>
-    <row r="470" spans="1:7" ht="15.75" customHeight="1">
+    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="7"/>
       <c r="D470" s="8"/>
       <c r="G470" s="8"/>
     </row>
-    <row r="471" spans="1:7" ht="15.75" customHeight="1">
+    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="7"/>
       <c r="D471" s="8"/>
       <c r="G471" s="8"/>
     </row>
-    <row r="472" spans="1:7" ht="15.75" customHeight="1">
+    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="7"/>
       <c r="D472" s="8"/>
       <c r="G472" s="8"/>
     </row>
-    <row r="473" spans="1:7" ht="15.75" customHeight="1">
+    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="7"/>
       <c r="D473" s="8"/>
       <c r="G473" s="8"/>
     </row>
-    <row r="474" spans="1:7" ht="15.75" customHeight="1">
+    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="7"/>
       <c r="D474" s="8"/>
       <c r="G474" s="8"/>
     </row>
-    <row r="475" spans="1:7" ht="15.75" customHeight="1">
+    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="7"/>
       <c r="D475" s="8"/>
       <c r="G475" s="8"/>
     </row>
-    <row r="476" spans="1:7" ht="15.75" customHeight="1">
+    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="7"/>
       <c r="D476" s="8"/>
       <c r="G476" s="8"/>
     </row>
-    <row r="477" spans="1:7" ht="15.75" customHeight="1">
+    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="7"/>
       <c r="D477" s="8"/>
       <c r="G477" s="8"/>
     </row>
-    <row r="478" spans="1:7" ht="15.75" customHeight="1">
+    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="7"/>
       <c r="D478" s="8"/>
       <c r="G478" s="8"/>
     </row>
-    <row r="479" spans="1:7" ht="15.75" customHeight="1">
+    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="7"/>
       <c r="D479" s="8"/>
       <c r="G479" s="8"/>
     </row>
-    <row r="480" spans="1:7" ht="15.75" customHeight="1">
+    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="7"/>
       <c r="D480" s="8"/>
       <c r="G480" s="8"/>
     </row>
-    <row r="481" spans="1:7" ht="15.75" customHeight="1">
+    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="7"/>
       <c r="D481" s="8"/>
       <c r="G481" s="8"/>
     </row>
-    <row r="482" spans="1:7" ht="15.75" customHeight="1">
+    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="7"/>
       <c r="D482" s="8"/>
       <c r="G482" s="8"/>
     </row>
-    <row r="483" spans="1:7" ht="15.75" customHeight="1">
+    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="7"/>
       <c r="D483" s="8"/>
       <c r="G483" s="8"/>
     </row>
-    <row r="484" spans="1:7" ht="15.75" customHeight="1">
+    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="7"/>
       <c r="D484" s="8"/>
       <c r="G484" s="8"/>
     </row>
-    <row r="485" spans="1:7" ht="15.75" customHeight="1">
+    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="7"/>
       <c r="D485" s="8"/>
       <c r="G485" s="8"/>
     </row>
-    <row r="486" spans="1:7" ht="15.75" customHeight="1">
+    <row r="486" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="7"/>
       <c r="D486" s="8"/>
       <c r="G486" s="8"/>
     </row>
-    <row r="487" spans="1:7" ht="15.75" customHeight="1">
+    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="7"/>
       <c r="D487" s="8"/>
       <c r="G487" s="8"/>
     </row>
-    <row r="488" spans="1:7" ht="15.75" customHeight="1">
+    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="7"/>
       <c r="D488" s="8"/>
       <c r="G488" s="8"/>
     </row>
-    <row r="489" spans="1:7" ht="15.75" customHeight="1">
+    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="7"/>
       <c r="D489" s="8"/>
       <c r="G489" s="8"/>
     </row>
-    <row r="490" spans="1:7" ht="15.75" customHeight="1">
+    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="7"/>
       <c r="D490" s="8"/>
       <c r="G490" s="8"/>
     </row>
-    <row r="491" spans="1:7" ht="15.75" customHeight="1">
+    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="7"/>
       <c r="D491" s="8"/>
       <c r="G491" s="8"/>
     </row>
-    <row r="492" spans="1:7" ht="15.75" customHeight="1">
+    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="7"/>
       <c r="D492" s="8"/>
       <c r="G492" s="8"/>
     </row>
-    <row r="493" spans="1:7" ht="15.75" customHeight="1">
+    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="7"/>
       <c r="D493" s="8"/>
       <c r="G493" s="8"/>
     </row>
-    <row r="494" spans="1:7" ht="15.75" customHeight="1">
+    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="7"/>
       <c r="D494" s="8"/>
       <c r="G494" s="8"/>
     </row>
-    <row r="495" spans="1:7" ht="15.75" customHeight="1">
+    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="7"/>
       <c r="D495" s="8"/>
       <c r="G495" s="8"/>
     </row>
-    <row r="496" spans="1:7" ht="15.75" customHeight="1">
+    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="7"/>
       <c r="D496" s="8"/>
       <c r="G496" s="8"/>
     </row>
-    <row r="497" spans="1:7" ht="15.75" customHeight="1">
+    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="7"/>
       <c r="D497" s="8"/>
       <c r="G497" s="8"/>
     </row>
-    <row r="498" spans="1:7" ht="15.75" customHeight="1">
+    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="7"/>
       <c r="D498" s="8"/>
       <c r="G498" s="8"/>
     </row>
-    <row r="499" spans="1:7" ht="15.75" customHeight="1">
+    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="7"/>
       <c r="D499" s="8"/>
       <c r="G499" s="8"/>
     </row>
-    <row r="500" spans="1:7" ht="15.75" customHeight="1">
+    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="7"/>
       <c r="D500" s="8"/>
       <c r="G500" s="8"/>
     </row>
-    <row r="501" spans="1:7" ht="15.75" customHeight="1">
+    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="7"/>
       <c r="D501" s="8"/>
       <c r="G501" s="8"/>
     </row>
-    <row r="502" spans="1:7" ht="15.75" customHeight="1">
+    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="7"/>
       <c r="D502" s="8"/>
       <c r="G502" s="8"/>
     </row>
-    <row r="503" spans="1:7" ht="15.75" customHeight="1">
+    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="7"/>
       <c r="D503" s="8"/>
       <c r="G503" s="8"/>
     </row>
-    <row r="504" spans="1:7" ht="15.75" customHeight="1">
+    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="7"/>
       <c r="D504" s="8"/>
       <c r="G504" s="8"/>
     </row>
-    <row r="505" spans="1:7" ht="15.75" customHeight="1">
+    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="7"/>
       <c r="D505" s="8"/>
       <c r="G505" s="8"/>
     </row>
-    <row r="506" spans="1:7" ht="15.75" customHeight="1">
+    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="7"/>
       <c r="D506" s="8"/>
       <c r="G506" s="8"/>
     </row>
-    <row r="507" spans="1:7" ht="15.75" customHeight="1">
+    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="7"/>
       <c r="D507" s="8"/>
       <c r="G507" s="8"/>
     </row>
-    <row r="508" spans="1:7" ht="15.75" customHeight="1">
+    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="7"/>
       <c r="D508" s="8"/>
       <c r="G508" s="8"/>
     </row>
-    <row r="509" spans="1:7" ht="15.75" customHeight="1">
+    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="7"/>
       <c r="D509" s="8"/>
       <c r="G509" s="8"/>
     </row>
-    <row r="510" spans="1:7" ht="15.75" customHeight="1">
+    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="7"/>
       <c r="D510" s="8"/>
       <c r="G510" s="8"/>
     </row>
-    <row r="511" spans="1:7" ht="15.75" customHeight="1">
+    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="7"/>
       <c r="D511" s="8"/>
       <c r="G511" s="8"/>
     </row>
-    <row r="512" spans="1:7" ht="15.75" customHeight="1">
+    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="7"/>
       <c r="D512" s="8"/>
       <c r="G512" s="8"/>
     </row>
-    <row r="513" spans="1:7" ht="15.75" customHeight="1">
+    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="7"/>
       <c r="D513" s="8"/>
       <c r="G513" s="8"/>
     </row>
-    <row r="514" spans="1:7" ht="15.75" customHeight="1">
+    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="7"/>
       <c r="D514" s="8"/>
       <c r="G514" s="8"/>
     </row>
-    <row r="515" spans="1:7" ht="15.75" customHeight="1">
+    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="7"/>
       <c r="D515" s="8"/>
       <c r="G515" s="8"/>
     </row>
-    <row r="516" spans="1:7" ht="15.75" customHeight="1">
+    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="7"/>
       <c r="D516" s="8"/>
       <c r="G516" s="8"/>
     </row>
-    <row r="517" spans="1:7" ht="15.75" customHeight="1">
+    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="7"/>
       <c r="D517" s="8"/>
       <c r="G517" s="8"/>
     </row>
-    <row r="518" spans="1:7" ht="15.75" customHeight="1">
+    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="7"/>
       <c r="D518" s="8"/>
       <c r="G518" s="8"/>
     </row>
-    <row r="519" spans="1:7" ht="15.75" customHeight="1">
+    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="7"/>
       <c r="D519" s="8"/>
       <c r="G519" s="8"/>
     </row>
-    <row r="520" spans="1:7" ht="15.75" customHeight="1">
+    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="7"/>
       <c r="D520" s="8"/>
       <c r="G520" s="8"/>
     </row>
-    <row r="521" spans="1:7" ht="15.75" customHeight="1">
+    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="7"/>
       <c r="D521" s="8"/>
       <c r="G521" s="8"/>
     </row>
-    <row r="522" spans="1:7" ht="15.75" customHeight="1">
+    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="7"/>
       <c r="D522" s="8"/>
       <c r="G522" s="8"/>
     </row>
-    <row r="523" spans="1:7" ht="15.75" customHeight="1">
+    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="7"/>
       <c r="D523" s="8"/>
       <c r="G523" s="8"/>
     </row>
-    <row r="524" spans="1:7" ht="15.75" customHeight="1">
+    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="7"/>
       <c r="D524" s="8"/>
       <c r="G524" s="8"/>
     </row>
-    <row r="525" spans="1:7" ht="15.75" customHeight="1">
+    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="7"/>
       <c r="D525" s="8"/>
       <c r="G525" s="8"/>
     </row>
-    <row r="526" spans="1:7" ht="15.75" customHeight="1">
+    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="7"/>
       <c r="D526" s="8"/>
       <c r="G526" s="8"/>
     </row>
-    <row r="527" spans="1:7" ht="15.75" customHeight="1">
+    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="7"/>
       <c r="D527" s="8"/>
       <c r="G527" s="8"/>
     </row>
-    <row r="528" spans="1:7" ht="15.75" customHeight="1">
+    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="7"/>
       <c r="D528" s="8"/>
       <c r="G528" s="8"/>
     </row>
-    <row r="529" spans="1:7" ht="15.75" customHeight="1">
+    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="7"/>
       <c r="D529" s="8"/>
       <c r="G529" s="8"/>
     </row>
-    <row r="530" spans="1:7" ht="15.75" customHeight="1">
+    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="7"/>
       <c r="D530" s="8"/>
       <c r="G530" s="8"/>
     </row>
-    <row r="531" spans="1:7" ht="15.75" customHeight="1">
+    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="7"/>
       <c r="D531" s="8"/>
       <c r="G531" s="8"/>
     </row>
-    <row r="532" spans="1:7" ht="15.75" customHeight="1">
+    <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="7"/>
       <c r="D532" s="8"/>
       <c r="G532" s="8"/>
     </row>
-    <row r="533" spans="1:7" ht="15.75" customHeight="1">
+    <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="7"/>
       <c r="D533" s="8"/>
       <c r="G533" s="8"/>
     </row>
-    <row r="534" spans="1:7" ht="15.75" customHeight="1">
+    <row r="534" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="7"/>
       <c r="D534" s="8"/>
       <c r="G534" s="8"/>
     </row>
-    <row r="535" spans="1:7" ht="15.75" customHeight="1">
+    <row r="535" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="7"/>
       <c r="D535" s="8"/>
       <c r="G535" s="8"/>
     </row>
-    <row r="536" spans="1:7" ht="15.75" customHeight="1">
+    <row r="536" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="7"/>
       <c r="D536" s="8"/>
       <c r="G536" s="8"/>
     </row>
-    <row r="537" spans="1:7" ht="15.75" customHeight="1">
+    <row r="537" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="7"/>
       <c r="D537" s="8"/>
       <c r="G537" s="8"/>
     </row>
-    <row r="538" spans="1:7" ht="15.75" customHeight="1">
+    <row r="538" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="7"/>
       <c r="D538" s="8"/>
       <c r="G538" s="8"/>
     </row>
-    <row r="539" spans="1:7" ht="15.75" customHeight="1">
+    <row r="539" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="7"/>
       <c r="D539" s="8"/>
       <c r="G539" s="8"/>
     </row>
-    <row r="540" spans="1:7" ht="15.75" customHeight="1">
+    <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="7"/>
       <c r="D540" s="8"/>
       <c r="G540" s="8"/>
     </row>
-    <row r="541" spans="1:7" ht="15.75" customHeight="1">
+    <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="7"/>
       <c r="D541" s="8"/>
       <c r="G541" s="8"/>
     </row>
-    <row r="542" spans="1:7" ht="15.75" customHeight="1">
+    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="7"/>
       <c r="D542" s="8"/>
       <c r="G542" s="8"/>
     </row>
-    <row r="543" spans="1:7" ht="15.75" customHeight="1">
+    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="7"/>
       <c r="D543" s="8"/>
       <c r="G543" s="8"/>
     </row>
-    <row r="544" spans="1:7" ht="15.75" customHeight="1">
+    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="7"/>
       <c r="D544" s="8"/>
       <c r="G544" s="8"/>
     </row>
-    <row r="545" spans="1:7" ht="15.75" customHeight="1">
+    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="7"/>
       <c r="D545" s="8"/>
       <c r="G545" s="8"/>
     </row>
-    <row r="546" spans="1:7" ht="15.75" customHeight="1">
+    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="7"/>
       <c r="D546" s="8"/>
       <c r="G546" s="8"/>
     </row>
-    <row r="547" spans="1:7" ht="15.75" customHeight="1">
+    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="7"/>
       <c r="D547" s="8"/>
       <c r="G547" s="8"/>
     </row>
-    <row r="548" spans="1:7" ht="15.75" customHeight="1">
+    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="7"/>
       <c r="D548" s="8"/>
       <c r="G548" s="8"/>
     </row>
-    <row r="549" spans="1:7" ht="15.75" customHeight="1">
+    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="7"/>
       <c r="D549" s="8"/>
       <c r="G549" s="8"/>
     </row>
-    <row r="550" spans="1:7" ht="15.75" customHeight="1">
+    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="7"/>
       <c r="D550" s="8"/>
       <c r="G550" s="8"/>
     </row>
-    <row r="551" spans="1:7" ht="15.75" customHeight="1">
+    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="7"/>
       <c r="D551" s="8"/>
       <c r="G551" s="8"/>
     </row>
-    <row r="552" spans="1:7" ht="15.75" customHeight="1">
+    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="7"/>
       <c r="D552" s="8"/>
       <c r="G552" s="8"/>
     </row>
-    <row r="553" spans="1:7" ht="15.75" customHeight="1">
+    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="7"/>
       <c r="D553" s="8"/>
       <c r="G553" s="8"/>
     </row>
-    <row r="554" spans="1:7" ht="15.75" customHeight="1">
+    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="7"/>
       <c r="D554" s="8"/>
       <c r="G554" s="8"/>
     </row>
-    <row r="555" spans="1:7" ht="15.75" customHeight="1">
+    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="7"/>
       <c r="D555" s="8"/>
       <c r="G555" s="8"/>
     </row>
-    <row r="556" spans="1:7" ht="15.75" customHeight="1">
+    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="7"/>
       <c r="D556" s="8"/>
       <c r="G556" s="8"/>
     </row>
-    <row r="557" spans="1:7" ht="15.75" customHeight="1">
+    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="7"/>
       <c r="D557" s="8"/>
       <c r="G557" s="8"/>
     </row>
-    <row r="558" spans="1:7" ht="15.75" customHeight="1">
+    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="7"/>
       <c r="D558" s="8"/>
       <c r="G558" s="8"/>
     </row>
-    <row r="559" spans="1:7" ht="15.75" customHeight="1">
+    <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="7"/>
       <c r="D559" s="8"/>
       <c r="G559" s="8"/>
     </row>
-    <row r="560" spans="1:7" ht="15.75" customHeight="1">
+    <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="7"/>
       <c r="D560" s="8"/>
       <c r="G560" s="8"/>
     </row>
-    <row r="561" spans="1:7" ht="15.75" customHeight="1">
+    <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="7"/>
       <c r="D561" s="8"/>
       <c r="G561" s="8"/>
     </row>
-    <row r="562" spans="1:7" ht="15.75" customHeight="1">
+    <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="7"/>
       <c r="D562" s="8"/>
       <c r="G562" s="8"/>
     </row>
-    <row r="563" spans="1:7" ht="15.75" customHeight="1">
+    <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="7"/>
       <c r="D563" s="8"/>
       <c r="G563" s="8"/>
     </row>
-    <row r="564" spans="1:7" ht="15.75" customHeight="1">
+    <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="7"/>
       <c r="D564" s="8"/>
       <c r="G564" s="8"/>
     </row>
-    <row r="565" spans="1:7" ht="15.75" customHeight="1">
+    <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="7"/>
       <c r="D565" s="8"/>
       <c r="G565" s="8"/>
     </row>
-    <row r="566" spans="1:7" ht="15.75" customHeight="1">
+    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="7"/>
       <c r="D566" s="8"/>
       <c r="G566" s="8"/>
     </row>
-    <row r="567" spans="1:7" ht="15.75" customHeight="1">
+    <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="7"/>
       <c r="D567" s="8"/>
       <c r="G567" s="8"/>
     </row>
-    <row r="568" spans="1:7" ht="15.75" customHeight="1">
+    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="7"/>
       <c r="D568" s="8"/>
       <c r="G568" s="8"/>
     </row>
-    <row r="569" spans="1:7" ht="15.75" customHeight="1">
+    <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="7"/>
       <c r="D569" s="8"/>
       <c r="G569" s="8"/>
     </row>
-    <row r="570" spans="1:7" ht="15.75" customHeight="1">
+    <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="7"/>
       <c r="D570" s="8"/>
       <c r="G570" s="8"/>
     </row>
-    <row r="571" spans="1:7" ht="15.75" customHeight="1">
+    <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="7"/>
       <c r="D571" s="8"/>
       <c r="G571" s="8"/>
     </row>
-    <row r="572" spans="1:7" ht="15.75" customHeight="1">
+    <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="7"/>
       <c r="D572" s="8"/>
       <c r="G572" s="8"/>
     </row>
-    <row r="573" spans="1:7" ht="15.75" customHeight="1">
+    <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="7"/>
       <c r="D573" s="8"/>
       <c r="G573" s="8"/>
     </row>
-    <row r="574" spans="1:7" ht="15.75" customHeight="1">
+    <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="7"/>
       <c r="D574" s="8"/>
       <c r="G574" s="8"/>
     </row>
-    <row r="575" spans="1:7" ht="15.75" customHeight="1">
+    <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="7"/>
       <c r="D575" s="8"/>
       <c r="G575" s="8"/>
     </row>
-    <row r="576" spans="1:7" ht="15.75" customHeight="1">
+    <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="7"/>
       <c r="D576" s="8"/>
       <c r="G576" s="8"/>
     </row>
-    <row r="577" spans="1:7" ht="15.75" customHeight="1">
+    <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="7"/>
       <c r="D577" s="8"/>
       <c r="G577" s="8"/>
     </row>
-    <row r="578" spans="1:7" ht="15.75" customHeight="1">
+    <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="7"/>
       <c r="D578" s="8"/>
       <c r="G578" s="8"/>
     </row>
-    <row r="579" spans="1:7" ht="15.75" customHeight="1">
+    <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="7"/>
       <c r="D579" s="8"/>
       <c r="G579" s="8"/>
     </row>
-    <row r="580" spans="1:7" ht="15.75" customHeight="1">
+    <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="7"/>
       <c r="D580" s="8"/>
       <c r="G580" s="8"/>
     </row>
-    <row r="581" spans="1:7" ht="15.75" customHeight="1">
+    <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="7"/>
       <c r="D581" s="8"/>
       <c r="G581" s="8"/>
     </row>
-    <row r="582" spans="1:7" ht="15.75" customHeight="1">
+    <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="7"/>
       <c r="D582" s="8"/>
       <c r="G582" s="8"/>
     </row>
-    <row r="583" spans="1:7" ht="15.75" customHeight="1">
+    <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="7"/>
       <c r="D583" s="8"/>
       <c r="G583" s="8"/>
     </row>
-    <row r="584" spans="1:7" ht="15.75" customHeight="1">
+    <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="7"/>
       <c r="D584" s="8"/>
       <c r="G584" s="8"/>
     </row>
-    <row r="585" spans="1:7" ht="15.75" customHeight="1">
+    <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="7"/>
       <c r="D585" s="8"/>
       <c r="G585" s="8"/>
     </row>
-    <row r="586" spans="1:7" ht="15.75" customHeight="1">
+    <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="7"/>
       <c r="D586" s="8"/>
       <c r="G586" s="8"/>
     </row>
-    <row r="587" spans="1:7" ht="15.75" customHeight="1">
+    <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="7"/>
       <c r="D587" s="8"/>
       <c r="G587" s="8"/>
     </row>
-    <row r="588" spans="1:7" ht="15.75" customHeight="1">
+    <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="7"/>
       <c r="D588" s="8"/>
       <c r="G588" s="8"/>
     </row>
-    <row r="589" spans="1:7" ht="15.75" customHeight="1">
+    <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="7"/>
       <c r="D589" s="8"/>
       <c r="G589" s="8"/>
     </row>
-    <row r="590" spans="1:7" ht="15.75" customHeight="1">
+    <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="7"/>
       <c r="D590" s="8"/>
       <c r="G590" s="8"/>
     </row>
-    <row r="591" spans="1:7" ht="15.75" customHeight="1">
+    <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="7"/>
       <c r="D591" s="8"/>
       <c r="G591" s="8"/>
     </row>
-    <row r="592" spans="1:7" ht="15.75" customHeight="1">
+    <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="7"/>
       <c r="D592" s="8"/>
       <c r="G592" s="8"/>
     </row>
-    <row r="593" spans="1:7" ht="15.75" customHeight="1">
+    <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="7"/>
       <c r="D593" s="8"/>
       <c r="G593" s="8"/>
     </row>
-    <row r="594" spans="1:7" ht="15.75" customHeight="1">
+    <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="7"/>
       <c r="D594" s="8"/>
       <c r="G594" s="8"/>
     </row>
-    <row r="595" spans="1:7" ht="15.75" customHeight="1">
+    <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="7"/>
       <c r="D595" s="8"/>
       <c r="G595" s="8"/>
     </row>
-    <row r="596" spans="1:7" ht="15.75" customHeight="1">
+    <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="7"/>
       <c r="D596" s="8"/>
       <c r="G596" s="8"/>
     </row>
-    <row r="597" spans="1:7" ht="15.75" customHeight="1">
+    <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="7"/>
       <c r="D597" s="8"/>
       <c r="G597" s="8"/>
     </row>
-    <row r="598" spans="1:7" ht="15.75" customHeight="1">
+    <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="7"/>
       <c r="D598" s="8"/>
       <c r="G598" s="8"/>
     </row>
-    <row r="599" spans="1:7" ht="15.75" customHeight="1">
+    <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="7"/>
       <c r="D599" s="8"/>
       <c r="G599" s="8"/>
     </row>
-    <row r="600" spans="1:7" ht="15.75" customHeight="1">
+    <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="7"/>
       <c r="D600" s="8"/>
       <c r="G600" s="8"/>
     </row>
-    <row r="601" spans="1:7" ht="15.75" customHeight="1">
+    <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="7"/>
       <c r="D601" s="8"/>
       <c r="G601" s="8"/>
     </row>
-    <row r="602" spans="1:7" ht="15.75" customHeight="1">
+    <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="7"/>
       <c r="D602" s="8"/>
       <c r="G602" s="8"/>
     </row>
-    <row r="603" spans="1:7" ht="15.75" customHeight="1">
+    <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="7"/>
       <c r="D603" s="8"/>
       <c r="G603" s="8"/>
     </row>
-    <row r="604" spans="1:7" ht="15.75" customHeight="1">
+    <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="7"/>
       <c r="D604" s="8"/>
       <c r="G604" s="8"/>
     </row>
-    <row r="605" spans="1:7" ht="15.75" customHeight="1">
+    <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="7"/>
       <c r="D605" s="8"/>
       <c r="G605" s="8"/>
     </row>
-    <row r="606" spans="1:7" ht="15.75" customHeight="1">
+    <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="7"/>
       <c r="D606" s="8"/>
       <c r="G606" s="8"/>
     </row>
-    <row r="607" spans="1:7" ht="15.75" customHeight="1">
+    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="7"/>
       <c r="D607" s="8"/>
       <c r="G607" s="8"/>
     </row>
-    <row r="608" spans="1:7" ht="15.75" customHeight="1">
+    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="7"/>
       <c r="D608" s="8"/>
       <c r="G608" s="8"/>
     </row>
-    <row r="609" spans="1:7" ht="15.75" customHeight="1">
+    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="7"/>
       <c r="D609" s="8"/>
       <c r="G609" s="8"/>
     </row>
-    <row r="610" spans="1:7" ht="15.75" customHeight="1">
+    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="7"/>
       <c r="D610" s="8"/>
       <c r="G610" s="8"/>
     </row>
-    <row r="611" spans="1:7" ht="15.75" customHeight="1">
+    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="7"/>
       <c r="D611" s="8"/>
       <c r="G611" s="8"/>
     </row>
-    <row r="612" spans="1:7" ht="15.75" customHeight="1">
+    <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="7"/>
       <c r="D612" s="8"/>
       <c r="G612" s="8"/>
     </row>
-    <row r="613" spans="1:7" ht="15.75" customHeight="1">
+    <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="7"/>
       <c r="D613" s="8"/>
       <c r="G613" s="8"/>
     </row>
-    <row r="614" spans="1:7" ht="15.75" customHeight="1">
+    <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="7"/>
       <c r="D614" s="8"/>
       <c r="G614" s="8"/>
     </row>
-    <row r="615" spans="1:7" ht="15.75" customHeight="1">
+    <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="7"/>
       <c r="D615" s="8"/>
       <c r="G615" s="8"/>
     </row>
-    <row r="616" spans="1:7" ht="15.75" customHeight="1">
+    <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="7"/>
       <c r="D616" s="8"/>
       <c r="G616" s="8"/>
     </row>
-    <row r="617" spans="1:7" ht="15.75" customHeight="1">
+    <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="7"/>
       <c r="D617" s="8"/>
       <c r="G617" s="8"/>
     </row>
-    <row r="618" spans="1:7" ht="15.75" customHeight="1">
+    <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="7"/>
       <c r="D618" s="8"/>
       <c r="G618" s="8"/>
     </row>
-    <row r="619" spans="1:7" ht="15.75" customHeight="1">
+    <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="7"/>
       <c r="D619" s="8"/>
       <c r="G619" s="8"/>
     </row>
-    <row r="620" spans="1:7" ht="15.75" customHeight="1">
+    <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="7"/>
       <c r="D620" s="8"/>
       <c r="G620" s="8"/>
     </row>
-    <row r="621" spans="1:7" ht="15.75" customHeight="1">
+    <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="7"/>
       <c r="D621" s="8"/>
       <c r="G621" s="8"/>
     </row>
-    <row r="622" spans="1:7" ht="15.75" customHeight="1">
+    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="7"/>
       <c r="D622" s="8"/>
       <c r="G622" s="8"/>
     </row>
-    <row r="623" spans="1:7" ht="15.75" customHeight="1">
+    <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="7"/>
       <c r="D623" s="8"/>
       <c r="G623" s="8"/>
     </row>
-    <row r="624" spans="1:7" ht="15.75" customHeight="1">
+    <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="7"/>
       <c r="D624" s="8"/>
       <c r="G624" s="8"/>
     </row>
-    <row r="625" spans="1:7" ht="15.75" customHeight="1">
+    <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="7"/>
       <c r="D625" s="8"/>
       <c r="G625" s="8"/>
     </row>
-    <row r="626" spans="1:7" ht="15.75" customHeight="1">
+    <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="7"/>
       <c r="D626" s="8"/>
       <c r="G626" s="8"/>
     </row>
-    <row r="627" spans="1:7" ht="15.75" customHeight="1">
+    <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="7"/>
       <c r="D627" s="8"/>
       <c r="G627" s="8"/>
     </row>
-    <row r="628" spans="1:7" ht="15.75" customHeight="1">
+    <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="7"/>
       <c r="D628" s="8"/>
       <c r="G628" s="8"/>
     </row>
-    <row r="629" spans="1:7" ht="15.75" customHeight="1">
+    <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="7"/>
       <c r="D629" s="8"/>
       <c r="G629" s="8"/>
     </row>
-    <row r="630" spans="1:7" ht="15.75" customHeight="1">
+    <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="7"/>
       <c r="D630" s="8"/>
       <c r="G630" s="8"/>
     </row>
-    <row r="631" spans="1:7" ht="15.75" customHeight="1">
+    <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="7"/>
       <c r="D631" s="8"/>
       <c r="G631" s="8"/>
     </row>
-    <row r="632" spans="1:7" ht="15.75" customHeight="1">
+    <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="7"/>
       <c r="D632" s="8"/>
       <c r="G632" s="8"/>
     </row>
-    <row r="633" spans="1:7" ht="15.75" customHeight="1">
+    <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="7"/>
       <c r="D633" s="8"/>
       <c r="G633" s="8"/>
     </row>
-    <row r="634" spans="1:7" ht="15.75" customHeight="1">
+    <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="7"/>
       <c r="D634" s="8"/>
       <c r="G634" s="8"/>
     </row>
-    <row r="635" spans="1:7" ht="15.75" customHeight="1">
+    <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="7"/>
       <c r="D635" s="8"/>
       <c r="G635" s="8"/>
     </row>
-    <row r="636" spans="1:7" ht="15.75" customHeight="1">
+    <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="7"/>
       <c r="D636" s="8"/>
       <c r="G636" s="8"/>
     </row>
-    <row r="637" spans="1:7" ht="15.75" customHeight="1">
+    <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="7"/>
       <c r="D637" s="8"/>
       <c r="G637" s="8"/>
     </row>
-    <row r="638" spans="1:7" ht="15.75" customHeight="1">
+    <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="7"/>
       <c r="D638" s="8"/>
       <c r="G638" s="8"/>
     </row>
-    <row r="639" spans="1:7" ht="15.75" customHeight="1">
+    <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="7"/>
       <c r="D639" s="8"/>
       <c r="G639" s="8"/>
     </row>
-    <row r="640" spans="1:7" ht="15.75" customHeight="1">
+    <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="7"/>
       <c r="D640" s="8"/>
       <c r="G640" s="8"/>
     </row>
-    <row r="641" spans="1:7" ht="15.75" customHeight="1">
+    <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="7"/>
       <c r="D641" s="8"/>
       <c r="G641" s="8"/>
     </row>
-    <row r="642" spans="1:7" ht="15.75" customHeight="1">
+    <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="7"/>
       <c r="D642" s="8"/>
       <c r="G642" s="8"/>
     </row>
-    <row r="643" spans="1:7" ht="15.75" customHeight="1">
+    <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="7"/>
       <c r="D643" s="8"/>
       <c r="G643" s="8"/>
     </row>
-    <row r="644" spans="1:7" ht="15.75" customHeight="1">
+    <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="7"/>
       <c r="D644" s="8"/>
       <c r="G644" s="8"/>
     </row>
-    <row r="645" spans="1:7" ht="15.75" customHeight="1">
+    <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="7"/>
       <c r="D645" s="8"/>
       <c r="G645" s="8"/>
     </row>
-    <row r="646" spans="1:7" ht="15.75" customHeight="1">
+    <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="7"/>
       <c r="D646" s="8"/>
       <c r="G646" s="8"/>
     </row>
-    <row r="647" spans="1:7" ht="15.75" customHeight="1">
+    <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="7"/>
       <c r="D647" s="8"/>
       <c r="G647" s="8"/>
     </row>
-    <row r="648" spans="1:7" ht="15.75" customHeight="1">
+    <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="7"/>
       <c r="D648" s="8"/>
       <c r="G648" s="8"/>
     </row>
-    <row r="649" spans="1:7" ht="15.75" customHeight="1">
+    <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="7"/>
       <c r="D649" s="8"/>
       <c r="G649" s="8"/>
     </row>
-    <row r="650" spans="1:7" ht="15.75" customHeight="1">
+    <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="7"/>
       <c r="D650" s="8"/>
       <c r="G650" s="8"/>
     </row>
-    <row r="651" spans="1:7" ht="15.75" customHeight="1">
+    <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="7"/>
       <c r="D651" s="8"/>
       <c r="G651" s="8"/>
     </row>
-    <row r="652" spans="1:7" ht="15.75" customHeight="1">
+    <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="7"/>
       <c r="D652" s="8"/>
       <c r="G652" s="8"/>
     </row>
-    <row r="653" spans="1:7" ht="15.75" customHeight="1">
+    <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="7"/>
       <c r="D653" s="8"/>
       <c r="G653" s="8"/>
     </row>
-    <row r="654" spans="1:7" ht="15.75" customHeight="1">
+    <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="7"/>
       <c r="D654" s="8"/>
       <c r="G654" s="8"/>
     </row>
-    <row r="655" spans="1:7" ht="15.75" customHeight="1">
+    <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="7"/>
       <c r="D655" s="8"/>
       <c r="G655" s="8"/>
     </row>
-    <row r="656" spans="1:7" ht="15.75" customHeight="1">
+    <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="7"/>
       <c r="D656" s="8"/>
       <c r="G656" s="8"/>
     </row>
-    <row r="657" spans="1:7" ht="15.75" customHeight="1">
+    <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="7"/>
       <c r="D657" s="8"/>
       <c r="G657" s="8"/>
     </row>
-    <row r="658" spans="1:7" ht="15.75" customHeight="1">
+    <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="7"/>
       <c r="D658" s="8"/>
       <c r="G658" s="8"/>
     </row>
-    <row r="659" spans="1:7" ht="15.75" customHeight="1">
+    <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="7"/>
       <c r="D659" s="8"/>
       <c r="G659" s="8"/>
     </row>
-    <row r="660" spans="1:7" ht="15.75" customHeight="1">
+    <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="7"/>
       <c r="D660" s="8"/>
       <c r="G660" s="8"/>
     </row>
-    <row r="661" spans="1:7" ht="15.75" customHeight="1">
+    <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="7"/>
       <c r="D661" s="8"/>
       <c r="G661" s="8"/>
     </row>
-    <row r="662" spans="1:7" ht="15.75" customHeight="1">
+    <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="7"/>
       <c r="D662" s="8"/>
       <c r="G662" s="8"/>
     </row>
-    <row r="663" spans="1:7" ht="15.75" customHeight="1">
+    <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="7"/>
       <c r="D663" s="8"/>
       <c r="G663" s="8"/>
     </row>
-    <row r="664" spans="1:7" ht="15.75" customHeight="1">
+    <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="7"/>
       <c r="D664" s="8"/>
       <c r="G664" s="8"/>
     </row>
-    <row r="665" spans="1:7" ht="15.75" customHeight="1">
+    <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="7"/>
       <c r="D665" s="8"/>
       <c r="G665" s="8"/>
     </row>
-    <row r="666" spans="1:7" ht="15.75" customHeight="1">
+    <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="7"/>
       <c r="D666" s="8"/>
       <c r="G666" s="8"/>
     </row>
-    <row r="667" spans="1:7" ht="15.75" customHeight="1">
+    <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="7"/>
       <c r="D667" s="8"/>
       <c r="G667" s="8"/>
     </row>
-    <row r="668" spans="1:7" ht="15.75" customHeight="1">
+    <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="7"/>
       <c r="D668" s="8"/>
       <c r="G668" s="8"/>
     </row>
-    <row r="669" spans="1:7" ht="15.75" customHeight="1">
+    <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="7"/>
       <c r="D669" s="8"/>
       <c r="G669" s="8"/>
     </row>
-    <row r="670" spans="1:7" ht="15.75" customHeight="1">
+    <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="7"/>
       <c r="D670" s="8"/>
       <c r="G670" s="8"/>
     </row>
-    <row r="671" spans="1:7" ht="15.75" customHeight="1">
+    <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="7"/>
       <c r="D671" s="8"/>
       <c r="G671" s="8"/>
     </row>
-    <row r="672" spans="1:7" ht="15.75" customHeight="1">
+    <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="7"/>
       <c r="D672" s="8"/>
       <c r="G672" s="8"/>
     </row>
-    <row r="673" spans="1:7" ht="15.75" customHeight="1">
+    <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="7"/>
       <c r="D673" s="8"/>
       <c r="G673" s="8"/>
     </row>
-    <row r="674" spans="1:7" ht="15.75" customHeight="1">
+    <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="7"/>
       <c r="D674" s="8"/>
       <c r="G674" s="8"/>
     </row>
-    <row r="675" spans="1:7" ht="15.75" customHeight="1">
+    <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="7"/>
       <c r="D675" s="8"/>
       <c r="G675" s="8"/>
     </row>
-    <row r="676" spans="1:7" ht="15.75" customHeight="1">
+    <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="7"/>
       <c r="D676" s="8"/>
       <c r="G676" s="8"/>
     </row>
-    <row r="677" spans="1:7" ht="15.75" customHeight="1">
+    <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="7"/>
       <c r="D677" s="8"/>
       <c r="G677" s="8"/>
     </row>
-    <row r="678" spans="1:7" ht="15.75" customHeight="1">
+    <row r="678" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="7"/>
       <c r="D678" s="8"/>
       <c r="G678" s="8"/>
     </row>
-    <row r="679" spans="1:7" ht="15.75" customHeight="1">
+    <row r="679" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="7"/>
       <c r="D679" s="8"/>
       <c r="G679" s="8"/>
     </row>
-    <row r="680" spans="1:7" ht="15.75" customHeight="1">
+    <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="7"/>
       <c r="D680" s="8"/>
       <c r="G680" s="8"/>
     </row>
-    <row r="681" spans="1:7" ht="15.75" customHeight="1">
+    <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="7"/>
       <c r="D681" s="8"/>
       <c r="G681" s="8"/>
     </row>
-    <row r="682" spans="1:7" ht="15.75" customHeight="1">
+    <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="7"/>
       <c r="D682" s="8"/>
       <c r="G682" s="8"/>
     </row>
-    <row r="683" spans="1:7" ht="15.75" customHeight="1">
+    <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="7"/>
       <c r="D683" s="8"/>
       <c r="G683" s="8"/>
     </row>
-    <row r="684" spans="1:7" ht="15.75" customHeight="1">
+    <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="7"/>
       <c r="D684" s="8"/>
       <c r="G684" s="8"/>
     </row>
-    <row r="685" spans="1:7" ht="15.75" customHeight="1">
+    <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="7"/>
       <c r="D685" s="8"/>
       <c r="G685" s="8"/>
     </row>
-    <row r="686" spans="1:7" ht="15.75" customHeight="1">
+    <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="7"/>
       <c r="D686" s="8"/>
       <c r="G686" s="8"/>
     </row>
-    <row r="687" spans="1:7" ht="15.75" customHeight="1">
+    <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="7"/>
       <c r="D687" s="8"/>
       <c r="G687" s="8"/>
     </row>
-    <row r="688" spans="1:7" ht="15.75" customHeight="1">
+    <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="7"/>
       <c r="D688" s="8"/>
       <c r="G688" s="8"/>
     </row>
-    <row r="689" spans="1:7" ht="15.75" customHeight="1">
+    <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="7"/>
       <c r="D689" s="8"/>
       <c r="G689" s="8"/>
     </row>
-    <row r="690" spans="1:7" ht="15.75" customHeight="1">
+    <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="7"/>
       <c r="D690" s="8"/>
       <c r="G690" s="8"/>
     </row>
-    <row r="691" spans="1:7" ht="15.75" customHeight="1">
+    <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="7"/>
       <c r="D691" s="8"/>
       <c r="G691" s="8"/>
     </row>
-    <row r="692" spans="1:7" ht="15.75" customHeight="1">
+    <row r="692" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="7"/>
       <c r="D692" s="8"/>
       <c r="G692" s="8"/>
     </row>
-    <row r="693" spans="1:7" ht="15.75" customHeight="1">
+    <row r="693" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="7"/>
       <c r="D693" s="8"/>
       <c r="G693" s="8"/>
     </row>
-    <row r="694" spans="1:7" ht="15.75" customHeight="1">
+    <row r="694" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="7"/>
       <c r="D694" s="8"/>
       <c r="G694" s="8"/>
     </row>
-    <row r="695" spans="1:7" ht="15.75" customHeight="1">
+    <row r="695" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="7"/>
       <c r="D695" s="8"/>
       <c r="G695" s="8"/>
     </row>
-    <row r="696" spans="1:7" ht="15.75" customHeight="1">
+    <row r="696" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="7"/>
       <c r="D696" s="8"/>
       <c r="G696" s="8"/>
     </row>
-    <row r="697" spans="1:7" ht="15.75" customHeight="1">
+    <row r="697" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="7"/>
       <c r="D697" s="8"/>
       <c r="G697" s="8"/>
     </row>
-    <row r="698" spans="1:7" ht="15.75" customHeight="1">
+    <row r="698" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="7"/>
       <c r="D698" s="8"/>
       <c r="G698" s="8"/>
     </row>
-    <row r="699" spans="1:7" ht="15.75" customHeight="1">
+    <row r="699" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="7"/>
       <c r="D699" s="8"/>
       <c r="G699" s="8"/>
     </row>
-    <row r="700" spans="1:7" ht="15.75" customHeight="1">
+    <row r="700" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="7"/>
       <c r="D700" s="8"/>
       <c r="G700" s="8"/>
     </row>
-    <row r="701" spans="1:7" ht="15.75" customHeight="1">
+    <row r="701" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="7"/>
       <c r="D701" s="8"/>
       <c r="G701" s="8"/>
     </row>
-    <row r="702" spans="1:7" ht="15.75" customHeight="1">
+    <row r="702" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="7"/>
       <c r="D702" s="8"/>
       <c r="G702" s="8"/>
     </row>
-    <row r="703" spans="1:7" ht="15.75" customHeight="1">
+    <row r="703" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="7"/>
       <c r="D703" s="8"/>
       <c r="G703" s="8"/>
     </row>
-    <row r="704" spans="1:7" ht="15.75" customHeight="1">
+    <row r="704" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="7"/>
       <c r="D704" s="8"/>
       <c r="G704" s="8"/>
     </row>
-    <row r="705" spans="1:7" ht="15.75" customHeight="1">
+    <row r="705" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="7"/>
       <c r="D705" s="8"/>
       <c r="G705" s="8"/>
     </row>
-    <row r="706" spans="1:7" ht="15.75" customHeight="1">
+    <row r="706" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="7"/>
       <c r="D706" s="8"/>
       <c r="G706" s="8"/>
     </row>
-    <row r="707" spans="1:7" ht="15.75" customHeight="1">
+    <row r="707" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="7"/>
       <c r="D707" s="8"/>
       <c r="G707" s="8"/>
     </row>
-    <row r="708" spans="1:7" ht="15.75" customHeight="1">
+    <row r="708" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="7"/>
       <c r="D708" s="8"/>
       <c r="G708" s="8"/>
     </row>
-    <row r="709" spans="1:7" ht="15.75" customHeight="1">
+    <row r="709" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="7"/>
       <c r="D709" s="8"/>
       <c r="G709" s="8"/>
     </row>
-    <row r="710" spans="1:7" ht="15.75" customHeight="1">
+    <row r="710" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="7"/>
       <c r="D710" s="8"/>
       <c r="G710" s="8"/>
     </row>
-    <row r="711" spans="1:7" ht="15.75" customHeight="1">
+    <row r="711" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="7"/>
       <c r="D711" s="8"/>
       <c r="G711" s="8"/>
     </row>
-    <row r="712" spans="1:7" ht="15.75" customHeight="1">
+    <row r="712" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="7"/>
       <c r="D712" s="8"/>
       <c r="G712" s="8"/>
     </row>
-    <row r="713" spans="1:7" ht="15.75" customHeight="1">
+    <row r="713" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="7"/>
       <c r="D713" s="8"/>
       <c r="G713" s="8"/>
     </row>
-    <row r="714" spans="1:7" ht="15.75" customHeight="1">
+    <row r="714" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="7"/>
       <c r="D714" s="8"/>
       <c r="G714" s="8"/>
     </row>
-    <row r="715" spans="1:7" ht="15.75" customHeight="1">
+    <row r="715" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="7"/>
       <c r="D715" s="8"/>
       <c r="G715" s="8"/>
     </row>
-    <row r="716" spans="1:7" ht="15.75" customHeight="1">
+    <row r="716" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="7"/>
       <c r="D716" s="8"/>
       <c r="G716" s="8"/>
     </row>
-    <row r="717" spans="1:7" ht="15.75" customHeight="1">
+    <row r="717" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="7"/>
       <c r="D717" s="8"/>
       <c r="G717" s="8"/>
     </row>
-    <row r="718" spans="1:7" ht="15.75" customHeight="1">
+    <row r="718" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="7"/>
       <c r="D718" s="8"/>
       <c r="G718" s="8"/>
     </row>
-    <row r="719" spans="1:7" ht="15.75" customHeight="1">
+    <row r="719" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="7"/>
       <c r="D719" s="8"/>
       <c r="G719" s="8"/>
     </row>
-    <row r="720" spans="1:7" ht="15.75" customHeight="1">
+    <row r="720" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="7"/>
       <c r="D720" s="8"/>
       <c r="G720" s="8"/>
     </row>
-    <row r="721" spans="1:7" ht="15.75" customHeight="1">
+    <row r="721" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="7"/>
       <c r="D721" s="8"/>
       <c r="G721" s="8"/>
     </row>
-    <row r="722" spans="1:7" ht="15.75" customHeight="1">
+    <row r="722" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="7"/>
       <c r="D722" s="8"/>
       <c r="G722" s="8"/>
     </row>
-    <row r="723" spans="1:7" ht="15.75" customHeight="1">
+    <row r="723" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="7"/>
       <c r="D723" s="8"/>
       <c r="G723" s="8"/>
     </row>
-    <row r="724" spans="1:7" ht="15.75" customHeight="1">
+    <row r="724" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="7"/>
       <c r="D724" s="8"/>
       <c r="G724" s="8"/>
     </row>
-    <row r="725" spans="1:7" ht="15.75" customHeight="1">
+    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="7"/>
       <c r="D725" s="8"/>
       <c r="G725" s="8"/>
     </row>
-    <row r="726" spans="1:7" ht="15.75" customHeight="1">
+    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="7"/>
       <c r="D726" s="8"/>
       <c r="G726" s="8"/>
     </row>
-    <row r="727" spans="1:7" ht="15.75" customHeight="1">
+    <row r="727" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="7"/>
       <c r="D727" s="8"/>
       <c r="G727" s="8"/>
     </row>
-    <row r="728" spans="1:7" ht="15.75" customHeight="1">
+    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="7"/>
       <c r="D728" s="8"/>
       <c r="G728" s="8"/>
     </row>
-    <row r="729" spans="1:7" ht="15.75" customHeight="1">
+    <row r="729" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="7"/>
       <c r="D729" s="8"/>
       <c r="G729" s="8"/>
     </row>
-    <row r="730" spans="1:7" ht="15.75" customHeight="1">
+    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="7"/>
       <c r="D730" s="8"/>
       <c r="G730" s="8"/>
     </row>
-    <row r="731" spans="1:7" ht="15.75" customHeight="1">
+    <row r="731" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="7"/>
       <c r="D731" s="8"/>
       <c r="G731" s="8"/>
     </row>
-    <row r="732" spans="1:7" ht="15.75" customHeight="1">
+    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="7"/>
       <c r="D732" s="8"/>
       <c r="G732" s="8"/>
     </row>
-    <row r="733" spans="1:7" ht="15.75" customHeight="1">
+    <row r="733" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="7"/>
       <c r="D733" s="8"/>
       <c r="G733" s="8"/>
     </row>
-    <row r="734" spans="1:7" ht="15.75" customHeight="1">
+    <row r="734" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="7"/>
       <c r="D734" s="8"/>
       <c r="G734" s="8"/>
     </row>
-    <row r="735" spans="1:7" ht="15.75" customHeight="1">
+    <row r="735" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="7"/>
       <c r="D735" s="8"/>
       <c r="G735" s="8"/>
     </row>
-    <row r="736" spans="1:7" ht="15.75" customHeight="1">
+    <row r="736" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="7"/>
       <c r="D736" s="8"/>
       <c r="G736" s="8"/>
     </row>
-    <row r="737" spans="1:7" ht="15.75" customHeight="1">
+    <row r="737" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="7"/>
       <c r="D737" s="8"/>
       <c r="G737" s="8"/>
     </row>
-    <row r="738" spans="1:7" ht="15.75" customHeight="1">
+    <row r="738" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="7"/>
       <c r="D738" s="8"/>
       <c r="G738" s="8"/>
     </row>
-    <row r="739" spans="1:7" ht="15.75" customHeight="1">
+    <row r="739" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="7"/>
       <c r="D739" s="8"/>
       <c r="G739" s="8"/>
     </row>
-    <row r="740" spans="1:7" ht="15.75" customHeight="1">
+    <row r="740" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="7"/>
       <c r="D740" s="8"/>
       <c r="G740" s="8"/>
     </row>
-    <row r="741" spans="1:7" ht="15.75" customHeight="1">
+    <row r="741" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="7"/>
       <c r="D741" s="8"/>
       <c r="G741" s="8"/>
     </row>
-    <row r="742" spans="1:7" ht="15.75" customHeight="1">
+    <row r="742" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="7"/>
       <c r="D742" s="8"/>
       <c r="G742" s="8"/>
     </row>
-    <row r="743" spans="1:7" ht="15.75" customHeight="1">
+    <row r="743" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="7"/>
       <c r="D743" s="8"/>
       <c r="G743" s="8"/>
     </row>
-    <row r="744" spans="1:7" ht="15.75" customHeight="1">
+    <row r="744" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="7"/>
       <c r="D744" s="8"/>
       <c r="G744" s="8"/>
     </row>
-    <row r="745" spans="1:7" ht="15.75" customHeight="1">
+    <row r="745" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="7"/>
       <c r="D745" s="8"/>
       <c r="G745" s="8"/>
     </row>
-    <row r="746" spans="1:7" ht="15.75" customHeight="1">
+    <row r="746" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="7"/>
       <c r="D746" s="8"/>
       <c r="G746" s="8"/>
     </row>
-    <row r="747" spans="1:7" ht="15.75" customHeight="1">
+    <row r="747" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="7"/>
       <c r="D747" s="8"/>
       <c r="G747" s="8"/>
     </row>
-    <row r="748" spans="1:7" ht="15.75" customHeight="1">
+    <row r="748" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="7"/>
       <c r="D748" s="8"/>
       <c r="G748" s="8"/>
     </row>
-    <row r="749" spans="1:7" ht="15.75" customHeight="1">
+    <row r="749" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="7"/>
       <c r="D749" s="8"/>
       <c r="G749" s="8"/>
     </row>
-    <row r="750" spans="1:7" ht="15.75" customHeight="1">
+    <row r="750" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="7"/>
       <c r="D750" s="8"/>
       <c r="G750" s="8"/>
     </row>
-    <row r="751" spans="1:7" ht="15.75" customHeight="1">
+    <row r="751" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="7"/>
       <c r="D751" s="8"/>
       <c r="G751" s="8"/>
     </row>
-    <row r="752" spans="1:7" ht="15.75" customHeight="1">
+    <row r="752" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="7"/>
       <c r="D752" s="8"/>
       <c r="G752" s="8"/>
     </row>
-    <row r="753" spans="1:7" ht="15.75" customHeight="1">
+    <row r="753" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="7"/>
       <c r="D753" s="8"/>
       <c r="G753" s="8"/>
     </row>
-    <row r="754" spans="1:7" ht="15.75" customHeight="1">
+    <row r="754" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="7"/>
       <c r="D754" s="8"/>
       <c r="G754" s="8"/>
     </row>
-    <row r="755" spans="1:7" ht="15.75" customHeight="1">
+    <row r="755" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="7"/>
       <c r="D755" s="8"/>
       <c r="G755" s="8"/>
     </row>
-    <row r="756" spans="1:7" ht="15.75" customHeight="1">
+    <row r="756" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="7"/>
       <c r="D756" s="8"/>
       <c r="G756" s="8"/>
     </row>
-    <row r="757" spans="1:7" ht="15.75" customHeight="1">
+    <row r="757" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="7"/>
       <c r="D757" s="8"/>
       <c r="G757" s="8"/>
     </row>
-    <row r="758" spans="1:7" ht="15.75" customHeight="1">
+    <row r="758" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="7"/>
       <c r="D758" s="8"/>
       <c r="G758" s="8"/>
     </row>
-    <row r="759" spans="1:7" ht="15.75" customHeight="1">
+    <row r="759" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="7"/>
       <c r="D759" s="8"/>
       <c r="G759" s="8"/>
     </row>
-    <row r="760" spans="1:7" ht="15.75" customHeight="1">
+    <row r="760" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="7"/>
       <c r="D760" s="8"/>
       <c r="G760" s="8"/>
     </row>
-    <row r="761" spans="1:7" ht="15.75" customHeight="1">
+    <row r="761" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="7"/>
       <c r="D761" s="8"/>
       <c r="G761" s="8"/>
     </row>
-    <row r="762" spans="1:7" ht="15.75" customHeight="1">
+    <row r="762" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="7"/>
       <c r="D762" s="8"/>
       <c r="G762" s="8"/>
     </row>
-    <row r="763" spans="1:7" ht="15.75" customHeight="1">
+    <row r="763" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="7"/>
       <c r="D763" s="8"/>
       <c r="G763" s="8"/>
     </row>
-    <row r="764" spans="1:7" ht="15.75" customHeight="1">
+    <row r="764" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="7"/>
       <c r="D764" s="8"/>
       <c r="G764" s="8"/>
     </row>
-    <row r="765" spans="1:7" ht="15.75" customHeight="1">
+    <row r="765" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="7"/>
       <c r="D765" s="8"/>
       <c r="G765" s="8"/>
     </row>
-    <row r="766" spans="1:7" ht="15.75" customHeight="1">
+    <row r="766" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="7"/>
       <c r="D766" s="8"/>
       <c r="G766" s="8"/>
     </row>
-    <row r="767" spans="1:7" ht="15.75" customHeight="1">
+    <row r="767" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="7"/>
       <c r="D767" s="8"/>
       <c r="G767" s="8"/>
     </row>
-    <row r="768" spans="1:7" ht="15.75" customHeight="1">
+    <row r="768" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="7"/>
       <c r="D768" s="8"/>
       <c r="G768" s="8"/>
     </row>
-    <row r="769" spans="1:7" ht="15.75" customHeight="1">
+    <row r="769" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="7"/>
       <c r="D769" s="8"/>
       <c r="G769" s="8"/>
     </row>
-    <row r="770" spans="1:7" ht="15.75" customHeight="1">
+    <row r="770" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="7"/>
       <c r="D770" s="8"/>
       <c r="G770" s="8"/>
     </row>
-    <row r="771" spans="1:7" ht="15.75" customHeight="1">
+    <row r="771" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="7"/>
       <c r="D771" s="8"/>
       <c r="G771" s="8"/>
     </row>
-    <row r="772" spans="1:7" ht="15.75" customHeight="1">
+    <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="7"/>
       <c r="D772" s="8"/>
       <c r="G772" s="8"/>
     </row>
-    <row r="773" spans="1:7" ht="15.75" customHeight="1">
+    <row r="773" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="7"/>
       <c r="D773" s="8"/>
       <c r="G773" s="8"/>
     </row>
-    <row r="774" spans="1:7" ht="15.75" customHeight="1">
+    <row r="774" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="7"/>
       <c r="D774" s="8"/>
       <c r="G774" s="8"/>
     </row>
-    <row r="775" spans="1:7" ht="15.75" customHeight="1">
+    <row r="775" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="7"/>
       <c r="D775" s="8"/>
       <c r="G775" s="8"/>
     </row>
-    <row r="776" spans="1:7" ht="15.75" customHeight="1">
+    <row r="776" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="7"/>
       <c r="D776" s="8"/>
       <c r="G776" s="8"/>
     </row>
-    <row r="777" spans="1:7" ht="15.75" customHeight="1">
+    <row r="777" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="7"/>
       <c r="D777" s="8"/>
       <c r="G777" s="8"/>
     </row>
-    <row r="778" spans="1:7" ht="15.75" customHeight="1">
+    <row r="778" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="7"/>
       <c r="D778" s="8"/>
       <c r="G778" s="8"/>
     </row>
-    <row r="779" spans="1:7" ht="15.75" customHeight="1">
+    <row r="779" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="7"/>
       <c r="D779" s="8"/>
       <c r="G779" s="8"/>
     </row>
-    <row r="780" spans="1:7" ht="15.75" customHeight="1">
+    <row r="780" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="7"/>
       <c r="D780" s="8"/>
       <c r="G780" s="8"/>
     </row>
-    <row r="781" spans="1:7" ht="15.75" customHeight="1">
+    <row r="781" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="7"/>
       <c r="D781" s="8"/>
       <c r="G781" s="8"/>
     </row>
-    <row r="782" spans="1:7" ht="15.75" customHeight="1">
+    <row r="782" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="7"/>
       <c r="D782" s="8"/>
       <c r="G782" s="8"/>
     </row>
-    <row r="783" spans="1:7" ht="15.75" customHeight="1">
+    <row r="783" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="7"/>
       <c r="D783" s="8"/>
       <c r="G783" s="8"/>
     </row>
-    <row r="784" spans="1:7" ht="15.75" customHeight="1">
+    <row r="784" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="7"/>
       <c r="D784" s="8"/>
       <c r="G784" s="8"/>
     </row>
-    <row r="785" spans="1:7" ht="15.75" customHeight="1">
+    <row r="785" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="7"/>
       <c r="D785" s="8"/>
       <c r="G785" s="8"/>
     </row>
-    <row r="786" spans="1:7" ht="15.75" customHeight="1">
+    <row r="786" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="7"/>
       <c r="D786" s="8"/>
       <c r="G786" s="8"/>
     </row>
-    <row r="787" spans="1:7" ht="15.75" customHeight="1">
+    <row r="787" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="7"/>
       <c r="D787" s="8"/>
       <c r="G787" s="8"/>
     </row>
-    <row r="788" spans="1:7" ht="15.75" customHeight="1">
+    <row r="788" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="7"/>
       <c r="D788" s="8"/>
       <c r="G788" s="8"/>
     </row>
-    <row r="789" spans="1:7" ht="15.75" customHeight="1">
+    <row r="789" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="7"/>
       <c r="D789" s="8"/>
       <c r="G789" s="8"/>
     </row>
-    <row r="790" spans="1:7" ht="15.75" customHeight="1">
+    <row r="790" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="7"/>
       <c r="D790" s="8"/>
       <c r="G790" s="8"/>
     </row>
-    <row r="791" spans="1:7" ht="15.75" customHeight="1">
+    <row r="791" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="7"/>
       <c r="D791" s="8"/>
       <c r="G791" s="8"/>
     </row>
-    <row r="792" spans="1:7" ht="15.75" customHeight="1">
+    <row r="792" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="7"/>
       <c r="D792" s="8"/>
       <c r="G792" s="8"/>
     </row>
-    <row r="793" spans="1:7" ht="15.75" customHeight="1">
+    <row r="793" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="7"/>
       <c r="D793" s="8"/>
       <c r="G793" s="8"/>
     </row>
-    <row r="794" spans="1:7" ht="15.75" customHeight="1">
+    <row r="794" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="7"/>
       <c r="D794" s="8"/>
       <c r="G794" s="8"/>
     </row>
-    <row r="795" spans="1:7" ht="15.75" customHeight="1">
+    <row r="795" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="7"/>
       <c r="D795" s="8"/>
       <c r="G795" s="8"/>
     </row>
-    <row r="796" spans="1:7" ht="15.75" customHeight="1">
+    <row r="796" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="7"/>
       <c r="D796" s="8"/>
       <c r="G796" s="8"/>
     </row>
-    <row r="797" spans="1:7" ht="15.75" customHeight="1">
+    <row r="797" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="7"/>
       <c r="D797" s="8"/>
       <c r="G797" s="8"/>
     </row>
-    <row r="798" spans="1:7" ht="15.75" customHeight="1">
+    <row r="798" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="7"/>
       <c r="D798" s="8"/>
       <c r="G798" s="8"/>
     </row>
-    <row r="799" spans="1:7" ht="15.75" customHeight="1">
+    <row r="799" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="7"/>
       <c r="D799" s="8"/>
       <c r="G799" s="8"/>
     </row>
-    <row r="800" spans="1:7" ht="15.75" customHeight="1">
+    <row r="800" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="7"/>
       <c r="D800" s="8"/>
       <c r="G800" s="8"/>
     </row>
-    <row r="801" spans="1:7" ht="15.75" customHeight="1">
+    <row r="801" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="7"/>
       <c r="D801" s="8"/>
       <c r="G801" s="8"/>
     </row>
-    <row r="802" spans="1:7" ht="15.75" customHeight="1">
+    <row r="802" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="7"/>
       <c r="D802" s="8"/>
       <c r="G802" s="8"/>
     </row>
-    <row r="803" spans="1:7" ht="15.75" customHeight="1">
+    <row r="803" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="7"/>
       <c r="D803" s="8"/>
       <c r="G803" s="8"/>
     </row>
-    <row r="804" spans="1:7" ht="15.75" customHeight="1">
+    <row r="804" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="7"/>
       <c r="D804" s="8"/>
       <c r="G804" s="8"/>
     </row>
-    <row r="805" spans="1:7" ht="15.75" customHeight="1">
+    <row r="805" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="7"/>
       <c r="D805" s="8"/>
       <c r="G805" s="8"/>
     </row>
-    <row r="806" spans="1:7" ht="15.75" customHeight="1">
+    <row r="806" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="7"/>
       <c r="D806" s="8"/>
       <c r="G806" s="8"/>
     </row>
-    <row r="807" spans="1:7" ht="15.75" customHeight="1">
+    <row r="807" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="7"/>
       <c r="D807" s="8"/>
       <c r="G807" s="8"/>
     </row>
-    <row r="808" spans="1:7" ht="15.75" customHeight="1">
+    <row r="808" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="7"/>
       <c r="D808" s="8"/>
       <c r="G808" s="8"/>
     </row>
-    <row r="809" spans="1:7" ht="15.75" customHeight="1">
+    <row r="809" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="7"/>
       <c r="D809" s="8"/>
       <c r="G809" s="8"/>
     </row>
-    <row r="810" spans="1:7" ht="15.75" customHeight="1">
+    <row r="810" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="7"/>
       <c r="D810" s="8"/>
       <c r="G810" s="8"/>
     </row>
-    <row r="811" spans="1:7" ht="15.75" customHeight="1">
+    <row r="811" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="7"/>
       <c r="D811" s="8"/>
       <c r="G811" s="8"/>
     </row>
-    <row r="812" spans="1:7" ht="15.75" customHeight="1">
+    <row r="812" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="7"/>
       <c r="D812" s="8"/>
       <c r="G812" s="8"/>
     </row>
-    <row r="813" spans="1:7" ht="15.75" customHeight="1">
+    <row r="813" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="7"/>
       <c r="D813" s="8"/>
       <c r="G813" s="8"/>
     </row>
-    <row r="814" spans="1:7" ht="15.75" customHeight="1">
+    <row r="814" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="7"/>
       <c r="D814" s="8"/>
       <c r="G814" s="8"/>
     </row>
-    <row r="815" spans="1:7" ht="15.75" customHeight="1">
+    <row r="815" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="7"/>
       <c r="D815" s="8"/>
       <c r="G815" s="8"/>
     </row>
-    <row r="816" spans="1:7" ht="15.75" customHeight="1">
+    <row r="816" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="7"/>
       <c r="D816" s="8"/>
       <c r="G816" s="8"/>
     </row>
-    <row r="817" spans="1:7" ht="15.75" customHeight="1">
+    <row r="817" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="7"/>
       <c r="D817" s="8"/>
       <c r="G817" s="8"/>
     </row>
-    <row r="818" spans="1:7" ht="15.75" customHeight="1">
+    <row r="818" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="7"/>
       <c r="D818" s="8"/>
       <c r="G818" s="8"/>
     </row>
-    <row r="819" spans="1:7" ht="15.75" customHeight="1">
+    <row r="819" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="7"/>
       <c r="D819" s="8"/>
       <c r="G819" s="8"/>
     </row>
-    <row r="820" spans="1:7" ht="15.75" customHeight="1">
+    <row r="820" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="7"/>
       <c r="D820" s="8"/>
       <c r="G820" s="8"/>
     </row>
-    <row r="821" spans="1:7" ht="15.75" customHeight="1">
+    <row r="821" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="7"/>
       <c r="D821" s="8"/>
       <c r="G821" s="8"/>
     </row>
-    <row r="822" spans="1:7" ht="15.75" customHeight="1">
+    <row r="822" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="7"/>
       <c r="D822" s="8"/>
       <c r="G822" s="8"/>
     </row>
-    <row r="823" spans="1:7" ht="15.75" customHeight="1">
+    <row r="823" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="7"/>
       <c r="D823" s="8"/>
       <c r="G823" s="8"/>
     </row>
-    <row r="824" spans="1:7" ht="15.75" customHeight="1">
+    <row r="824" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="7"/>
       <c r="D824" s="8"/>
       <c r="G824" s="8"/>
     </row>
-    <row r="825" spans="1:7" ht="15.75" customHeight="1">
+    <row r="825" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="7"/>
       <c r="D825" s="8"/>
       <c r="G825" s="8"/>
     </row>
-    <row r="826" spans="1:7" ht="15.75" customHeight="1">
+    <row r="826" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="7"/>
       <c r="D826" s="8"/>
       <c r="G826" s="8"/>
     </row>
-    <row r="827" spans="1:7" ht="15.75" customHeight="1">
+    <row r="827" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="7"/>
       <c r="D827" s="8"/>
       <c r="G827" s="8"/>
     </row>
-    <row r="828" spans="1:7" ht="15.75" customHeight="1">
+    <row r="828" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="7"/>
       <c r="D828" s="8"/>
       <c r="G828" s="8"/>
     </row>
-    <row r="829" spans="1:7" ht="15.75" customHeight="1">
+    <row r="829" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="7"/>
       <c r="D829" s="8"/>
       <c r="G829" s="8"/>
     </row>
-    <row r="830" spans="1:7" ht="15.75" customHeight="1">
+    <row r="830" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="7"/>
       <c r="D830" s="8"/>
       <c r="G830" s="8"/>
     </row>
-    <row r="831" spans="1:7" ht="15.75" customHeight="1">
+    <row r="831" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="7"/>
       <c r="D831" s="8"/>
       <c r="G831" s="8"/>
     </row>
-    <row r="832" spans="1:7" ht="15.75" customHeight="1">
+    <row r="832" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="7"/>
       <c r="D832" s="8"/>
       <c r="G832" s="8"/>
     </row>
-    <row r="833" spans="1:7" ht="15.75" customHeight="1">
+    <row r="833" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="7"/>
       <c r="D833" s="8"/>
       <c r="G833" s="8"/>
     </row>
-    <row r="834" spans="1:7" ht="15.75" customHeight="1">
+    <row r="834" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="7"/>
       <c r="D834" s="8"/>
       <c r="G834" s="8"/>
     </row>
-    <row r="835" spans="1:7" ht="15.75" customHeight="1">
+    <row r="835" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="7"/>
       <c r="D835" s="8"/>
       <c r="G835" s="8"/>
     </row>
-    <row r="836" spans="1:7" ht="15.75" customHeight="1">
+    <row r="836" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="7"/>
       <c r="D836" s="8"/>
       <c r="G836" s="8"/>
     </row>
-    <row r="837" spans="1:7" ht="15.75" customHeight="1">
+    <row r="837" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="7"/>
       <c r="D837" s="8"/>
       <c r="G837" s="8"/>
     </row>
-    <row r="838" spans="1:7" ht="15.75" customHeight="1">
+    <row r="838" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="7"/>
       <c r="D838" s="8"/>
       <c r="G838" s="8"/>
     </row>
-    <row r="839" spans="1:7" ht="15.75" customHeight="1">
+    <row r="839" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="7"/>
       <c r="D839" s="8"/>
       <c r="G839" s="8"/>
     </row>
-    <row r="840" spans="1:7" ht="15.75" customHeight="1">
+    <row r="840" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="7"/>
       <c r="D840" s="8"/>
       <c r="G840" s="8"/>
     </row>
-    <row r="841" spans="1:7" ht="15.75" customHeight="1">
+    <row r="841" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
       <c r="C841" s="7"/>
       <c r="D841" s="8"/>
       <c r="G841" s="8"/>
     </row>
-    <row r="842" spans="1:7" ht="15.75" customHeight="1">
+    <row r="842" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="6"/>
       <c r="B842" s="6"/>
       <c r="C842" s="7"/>
       <c r="D842" s="8"/>
       <c r="G842" s="8"/>
     </row>
-    <row r="843" spans="1:7" ht="15.75" customHeight="1">
+    <row r="843" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
       <c r="C843" s="7"/>
       <c r="D843" s="8"/>
       <c r="G843" s="8"/>
     </row>
-    <row r="844" spans="1:7" ht="15.75" customHeight="1">
+    <row r="844" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="6"/>
       <c r="B844" s="6"/>
       <c r="C844" s="7"/>
       <c r="D844" s="8"/>
       <c r="G844" s="8"/>
     </row>
-    <row r="845" spans="1:7" ht="15.75" customHeight="1">
+    <row r="845" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
       <c r="C845" s="7"/>
       <c r="D845" s="8"/>
       <c r="G845" s="8"/>
     </row>
-    <row r="846" spans="1:7" ht="15.75" customHeight="1">
+    <row r="846" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="7"/>
       <c r="D846" s="8"/>
       <c r="G846" s="8"/>
     </row>
-    <row r="847" spans="1:7" ht="15.75" customHeight="1">
+    <row r="847" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
       <c r="C847" s="7"/>
       <c r="D847" s="8"/>
       <c r="G847" s="8"/>
     </row>
-    <row r="848" spans="1:7" ht="15.75" customHeight="1">
+    <row r="848" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="6"/>
       <c r="B848" s="6"/>
       <c r="C848" s="7"/>
       <c r="D848" s="8"/>
       <c r="G848" s="8"/>
     </row>
-    <row r="849" spans="1:7" ht="15.75" customHeight="1">
+    <row r="849" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
       <c r="C849" s="7"/>
       <c r="D849" s="8"/>
       <c r="G849" s="8"/>
     </row>
-    <row r="850" spans="1:7" ht="15.75" customHeight="1">
+    <row r="850" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="6"/>
       <c r="B850" s="6"/>
       <c r="C850" s="7"/>
       <c r="D850" s="8"/>
       <c r="G850" s="8"/>
     </row>
-    <row r="851" spans="1:7" ht="15.75" customHeight="1">
+    <row r="851" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
       <c r="C851" s="7"/>
       <c r="D851" s="8"/>
       <c r="G851" s="8"/>
     </row>
-    <row r="852" spans="1:7" ht="15.75" customHeight="1">
+    <row r="852" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="6"/>
       <c r="B852" s="6"/>
       <c r="C852" s="7"/>
       <c r="D852" s="8"/>
       <c r="G852" s="8"/>
     </row>
-    <row r="853" spans="1:7" ht="15.75" customHeight="1">
+    <row r="853" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
       <c r="C853" s="7"/>
       <c r="D853" s="8"/>
       <c r="G853" s="8"/>
     </row>
-    <row r="854" spans="1:7" ht="15.75" customHeight="1">
+    <row r="854" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="6"/>
       <c r="B854" s="6"/>
       <c r="C854" s="7"/>
       <c r="D854" s="8"/>
       <c r="G854" s="8"/>
     </row>
-    <row r="855" spans="1:7" ht="15.75" customHeight="1">
+    <row r="855" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
       <c r="C855" s="7"/>
       <c r="D855" s="8"/>
       <c r="G855" s="8"/>
     </row>
-    <row r="856" spans="1:7" ht="15.75" customHeight="1">
+    <row r="856" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="6"/>
       <c r="B856" s="6"/>
       <c r="C856" s="7"/>
       <c r="D856" s="8"/>
       <c r="G856" s="8"/>
     </row>
-    <row r="857" spans="1:7" ht="15.75" customHeight="1">
+    <row r="857" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="7"/>
       <c r="D857" s="8"/>
       <c r="G857" s="8"/>
     </row>
-    <row r="858" spans="1:7" ht="15.75" customHeight="1">
+    <row r="858" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="6"/>
       <c r="B858" s="6"/>
       <c r="C858" s="7"/>
       <c r="D858" s="8"/>
       <c r="G858" s="8"/>
     </row>
-    <row r="859" spans="1:7" ht="15.75" customHeight="1">
+    <row r="859" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
       <c r="C859" s="7"/>
       <c r="D859" s="8"/>
       <c r="G859" s="8"/>
     </row>
-    <row r="860" spans="1:7" ht="15.75" customHeight="1">
+    <row r="860" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="6"/>
       <c r="B860" s="6"/>
       <c r="C860" s="7"/>
       <c r="D860" s="8"/>
       <c r="G860" s="8"/>
     </row>
-    <row r="861" spans="1:7" ht="15.75" customHeight="1">
+    <row r="861" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
       <c r="C861" s="7"/>
       <c r="D861" s="8"/>
       <c r="G861" s="8"/>
     </row>
-    <row r="862" spans="1:7" ht="15.75" customHeight="1">
+    <row r="862" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="6"/>
       <c r="B862" s="6"/>
       <c r="C862" s="7"/>
       <c r="D862" s="8"/>
       <c r="G862" s="8"/>
     </row>
-    <row r="863" spans="1:7" ht="15.75" customHeight="1">
+    <row r="863" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
       <c r="C863" s="7"/>
       <c r="D863" s="8"/>
       <c r="G863" s="8"/>
     </row>
-    <row r="864" spans="1:7" ht="15.75" customHeight="1">
+    <row r="864" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="6"/>
       <c r="B864" s="6"/>
       <c r="C864" s="7"/>
       <c r="D864" s="8"/>
       <c r="G864" s="8"/>
     </row>
-    <row r="865" spans="1:7" ht="15.75" customHeight="1">
+    <row r="865" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
       <c r="C865" s="7"/>
       <c r="D865" s="8"/>
       <c r="G865" s="8"/>
     </row>
-    <row r="866" spans="1:7" ht="15.75" customHeight="1">
+    <row r="866" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="6"/>
       <c r="B866" s="6"/>
       <c r="C866" s="7"/>
       <c r="D866" s="8"/>
       <c r="G866" s="8"/>
     </row>
-    <row r="867" spans="1:7" ht="15.75" customHeight="1">
+    <row r="867" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
       <c r="C867" s="7"/>
       <c r="D867" s="8"/>
       <c r="G867" s="8"/>
     </row>
-    <row r="868" spans="1:7" ht="15.75" customHeight="1">
+    <row r="868" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="7"/>
       <c r="D868" s="8"/>
       <c r="G868" s="8"/>
     </row>
-    <row r="869" spans="1:7" ht="15.75" customHeight="1">
+    <row r="869" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
       <c r="C869" s="7"/>
       <c r="D869" s="8"/>
       <c r="G869" s="8"/>
     </row>
-    <row r="870" spans="1:7" ht="15.75" customHeight="1">
+    <row r="870" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="6"/>
       <c r="B870" s="6"/>
       <c r="C870" s="7"/>
       <c r="D870" s="8"/>
       <c r="G870" s="8"/>
     </row>
-    <row r="871" spans="1:7" ht="15.75" customHeight="1">
+    <row r="871" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
       <c r="C871" s="7"/>
       <c r="D871" s="8"/>
       <c r="G871" s="8"/>
     </row>
-    <row r="872" spans="1:7" ht="15.75" customHeight="1">
+    <row r="872" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="6"/>
       <c r="B872" s="6"/>
       <c r="C872" s="7"/>
       <c r="D872" s="8"/>
       <c r="G872" s="8"/>
     </row>
-    <row r="873" spans="1:7" ht="15.75" customHeight="1">
+    <row r="873" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
       <c r="C873" s="7"/>
       <c r="D873" s="8"/>
       <c r="G873" s="8"/>
     </row>
-    <row r="874" spans="1:7" ht="15.75" customHeight="1">
+    <row r="874" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="6"/>
       <c r="B874" s="6"/>
       <c r="C874" s="7"/>
       <c r="D874" s="8"/>
       <c r="G874" s="8"/>
     </row>
-    <row r="875" spans="1:7" ht="15.75" customHeight="1">
+    <row r="875" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
       <c r="C875" s="7"/>
       <c r="D875" s="8"/>
       <c r="G875" s="8"/>
     </row>
-    <row r="876" spans="1:7" ht="15.75" customHeight="1">
+    <row r="876" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="6"/>
       <c r="B876" s="6"/>
       <c r="C876" s="7"/>
       <c r="D876" s="8"/>
       <c r="G876" s="8"/>
     </row>
-    <row r="877" spans="1:7" ht="15.75" customHeight="1">
+    <row r="877" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
       <c r="C877" s="7"/>
       <c r="D877" s="8"/>
       <c r="G877" s="8"/>
     </row>
-    <row r="878" spans="1:7" ht="15.75" customHeight="1">
+    <row r="878" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="6"/>
       <c r="B878" s="6"/>
       <c r="C878" s="7"/>
       <c r="D878" s="8"/>
       <c r="G878" s="8"/>
     </row>
-    <row r="879" spans="1:7" ht="15.75" customHeight="1">
+    <row r="879" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="7"/>
       <c r="D879" s="8"/>
       <c r="G879" s="8"/>
     </row>
-    <row r="880" spans="1:7" ht="15.75" customHeight="1">
+    <row r="880" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="6"/>
       <c r="B880" s="6"/>
       <c r="C880" s="7"/>
       <c r="D880" s="8"/>
       <c r="G880" s="8"/>
     </row>
-    <row r="881" spans="1:7" ht="15.75" customHeight="1">
+    <row r="881" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
       <c r="C881" s="7"/>
       <c r="D881" s="8"/>
       <c r="G881" s="8"/>
     </row>
-    <row r="882" spans="1:7" ht="15.75" customHeight="1">
+    <row r="882" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="6"/>
       <c r="B882" s="6"/>
       <c r="C882" s="7"/>
       <c r="D882" s="8"/>
       <c r="G882" s="8"/>
     </row>
-    <row r="883" spans="1:7" ht="15.75" customHeight="1">
+    <row r="883" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
       <c r="C883" s="7"/>
       <c r="D883" s="8"/>
       <c r="G883" s="8"/>
     </row>
-    <row r="884" spans="1:7" ht="15.75" customHeight="1">
+    <row r="884" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="6"/>
       <c r="B884" s="6"/>
       <c r="C884" s="7"/>
       <c r="D884" s="8"/>
       <c r="G884" s="8"/>
     </row>
-    <row r="885" spans="1:7" ht="15.75" customHeight="1">
+    <row r="885" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
       <c r="C885" s="7"/>
       <c r="D885" s="8"/>
       <c r="G885" s="8"/>
     </row>
-    <row r="886" spans="1:7" ht="15.75" customHeight="1">
+    <row r="886" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
       <c r="C886" s="7"/>
       <c r="D886" s="8"/>
       <c r="G886" s="8"/>
     </row>
-    <row r="887" spans="1:7" ht="15.75" customHeight="1">
+    <row r="887" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
       <c r="C887" s="7"/>
       <c r="D887" s="8"/>
       <c r="G887" s="8"/>
     </row>
-    <row r="888" spans="1:7" ht="15.75" customHeight="1">
+    <row r="888" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="6"/>
       <c r="B888" s="6"/>
       <c r="C888" s="7"/>
       <c r="D888" s="8"/>
       <c r="G888" s="8"/>
     </row>
-    <row r="889" spans="1:7" ht="15.75" customHeight="1">
+    <row r="889" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
       <c r="C889" s="7"/>
       <c r="D889" s="8"/>
       <c r="G889" s="8"/>
     </row>
-    <row r="890" spans="1:7" ht="15.75" customHeight="1">
+    <row r="890" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="7"/>
       <c r="D890" s="8"/>
       <c r="G890" s="8"/>
     </row>
-    <row r="891" spans="1:7" ht="15.75" customHeight="1">
+    <row r="891" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
       <c r="C891" s="7"/>
       <c r="D891" s="8"/>
       <c r="G891" s="8"/>
     </row>
-    <row r="892" spans="1:7" ht="15.75" customHeight="1">
+    <row r="892" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="6"/>
       <c r="B892" s="6"/>
       <c r="C892" s="7"/>
       <c r="D892" s="8"/>
       <c r="G892" s="8"/>
     </row>
-    <row r="893" spans="1:7" ht="15.75" customHeight="1">
+    <row r="893" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
       <c r="C893" s="7"/>
       <c r="D893" s="8"/>
       <c r="G893" s="8"/>
     </row>
-    <row r="894" spans="1:7" ht="15.75" customHeight="1">
+    <row r="894" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="6"/>
       <c r="B894" s="6"/>
       <c r="C894" s="7"/>
       <c r="D894" s="8"/>
       <c r="G894" s="8"/>
     </row>
-    <row r="895" spans="1:7" ht="15.75" customHeight="1">
+    <row r="895" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
       <c r="C895" s="7"/>
       <c r="D895" s="8"/>
       <c r="G895" s="8"/>
     </row>
-    <row r="896" spans="1:7" ht="15.75" customHeight="1">
+    <row r="896" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="6"/>
       <c r="B896" s="6"/>
       <c r="C896" s="7"/>
       <c r="D896" s="8"/>
       <c r="G896" s="8"/>
     </row>
-    <row r="897" spans="1:7" ht="15.75" customHeight="1">
+    <row r="897" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
       <c r="C897" s="7"/>
       <c r="D897" s="8"/>
       <c r="G897" s="8"/>
     </row>
-    <row r="898" spans="1:7" ht="15.75" customHeight="1">
+    <row r="898" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="6"/>
       <c r="B898" s="6"/>
       <c r="C898" s="7"/>
       <c r="D898" s="8"/>
       <c r="G898" s="8"/>
     </row>
-    <row r="899" spans="1:7" ht="15.75" customHeight="1">
+    <row r="899" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
       <c r="C899" s="7"/>
       <c r="D899" s="8"/>
       <c r="G899" s="8"/>
     </row>
-    <row r="900" spans="1:7" ht="15.75" customHeight="1">
+    <row r="900" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="6"/>
       <c r="B900" s="6"/>
       <c r="C900" s="7"/>
       <c r="D900" s="8"/>
       <c r="G900" s="8"/>
     </row>
-    <row r="901" spans="1:7" ht="15.75" customHeight="1">
+    <row r="901" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="7"/>
       <c r="D901" s="8"/>
       <c r="G901" s="8"/>
     </row>
-    <row r="902" spans="1:7" ht="15.75" customHeight="1">
+    <row r="902" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="6"/>
       <c r="B902" s="6"/>
       <c r="C902" s="7"/>
       <c r="D902" s="8"/>
       <c r="G902" s="8"/>
     </row>
-    <row r="903" spans="1:7" ht="15.75" customHeight="1">
+    <row r="903" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
       <c r="C903" s="7"/>
       <c r="D903" s="8"/>
       <c r="G903" s="8"/>
     </row>
-    <row r="904" spans="1:7" ht="15.75" customHeight="1">
+    <row r="904" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="6"/>
       <c r="B904" s="6"/>
       <c r="C904" s="7"/>
       <c r="D904" s="8"/>
       <c r="G904" s="8"/>
     </row>
-    <row r="905" spans="1:7" ht="15.75" customHeight="1">
+    <row r="905" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
       <c r="C905" s="7"/>
       <c r="D905" s="8"/>
       <c r="G905" s="8"/>
     </row>
-    <row r="906" spans="1:7" ht="15.75" customHeight="1">
+    <row r="906" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="6"/>
       <c r="B906" s="6"/>
       <c r="C906" s="7"/>
       <c r="D906" s="8"/>
       <c r="G906" s="8"/>
     </row>
-    <row r="907" spans="1:7" ht="15.75" customHeight="1">
+    <row r="907" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
       <c r="C907" s="7"/>
       <c r="D907" s="8"/>
       <c r="G907" s="8"/>
     </row>
-    <row r="908" spans="1:7" ht="15.75" customHeight="1">
+    <row r="908" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="6"/>
       <c r="B908" s="6"/>
       <c r="C908" s="7"/>
       <c r="D908" s="8"/>
       <c r="G908" s="8"/>
     </row>
-    <row r="909" spans="1:7" ht="15.75" customHeight="1">
+    <row r="909" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
       <c r="C909" s="7"/>
       <c r="D909" s="8"/>
       <c r="G909" s="8"/>
     </row>
-    <row r="910" spans="1:7" ht="15.75" customHeight="1">
+    <row r="910" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="6"/>
       <c r="B910" s="6"/>
       <c r="C910" s="7"/>
       <c r="D910" s="8"/>
       <c r="G910" s="8"/>
     </row>
-    <row r="911" spans="1:7" ht="15.75" customHeight="1">
+    <row r="911" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
       <c r="C911" s="7"/>
       <c r="D911" s="8"/>
       <c r="G911" s="8"/>
     </row>
-    <row r="912" spans="1:7" ht="15.75" customHeight="1">
+    <row r="912" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="7"/>
       <c r="D912" s="8"/>
       <c r="G912" s="8"/>
     </row>
-    <row r="913" spans="1:7" ht="15.75" customHeight="1">
+    <row r="913" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
       <c r="C913" s="7"/>
       <c r="D913" s="8"/>
       <c r="G913" s="8"/>
     </row>
-    <row r="914" spans="1:7" ht="15.75" customHeight="1">
+    <row r="914" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="6"/>
       <c r="B914" s="6"/>
       <c r="C914" s="7"/>
       <c r="D914" s="8"/>
       <c r="G914" s="8"/>
     </row>
-    <row r="915" spans="1:7" ht="15.75" customHeight="1">
+    <row r="915" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
       <c r="C915" s="7"/>
       <c r="D915" s="8"/>
       <c r="G915" s="8"/>
     </row>
-    <row r="916" spans="1:7" ht="15.75" customHeight="1">
+    <row r="916" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="6"/>
       <c r="B916" s="6"/>
       <c r="C916" s="7"/>
       <c r="D916" s="8"/>
       <c r="G916" s="8"/>
     </row>
-    <row r="917" spans="1:7" ht="15.75" customHeight="1">
+    <row r="917" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
       <c r="C917" s="7"/>
       <c r="D917" s="8"/>
       <c r="G917" s="8"/>
     </row>
-    <row r="918" spans="1:7" ht="15.75" customHeight="1">
+    <row r="918" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="6"/>
       <c r="B918" s="6"/>
       <c r="C918" s="7"/>
       <c r="D918" s="8"/>
       <c r="G918" s="8"/>
     </row>
-    <row r="919" spans="1:7" ht="15.75" customHeight="1">
+    <row r="919" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
       <c r="C919" s="7"/>
       <c r="D919" s="8"/>
       <c r="G919" s="8"/>
     </row>
-    <row r="920" spans="1:7" ht="15.75" customHeight="1">
+    <row r="920" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="6"/>
       <c r="B920" s="6"/>
       <c r="C920" s="7"/>
       <c r="D920" s="8"/>
       <c r="G920" s="8"/>
     </row>
-    <row r="921" spans="1:7" ht="15.75" customHeight="1">
+    <row r="921" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
       <c r="C921" s="7"/>
       <c r="D921" s="8"/>
       <c r="G921" s="8"/>
     </row>
-    <row r="922" spans="1:7" ht="15.75" customHeight="1">
+    <row r="922" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="6"/>
       <c r="B922" s="6"/>
       <c r="C922" s="7"/>
       <c r="D922" s="8"/>
       <c r="G922" s="8"/>
     </row>
-    <row r="923" spans="1:7" ht="15.75" customHeight="1">
+    <row r="923" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
       <c r="C923" s="7"/>
       <c r="D923" s="8"/>
       <c r="G923" s="8"/>
     </row>
-    <row r="924" spans="1:7" ht="15.75" customHeight="1">
+    <row r="924" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="7"/>
       <c r="D924" s="8"/>
       <c r="G924" s="8"/>
     </row>
-    <row r="925" spans="1:7" ht="15.75" customHeight="1">
+    <row r="925" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
       <c r="C925" s="7"/>
       <c r="D925" s="8"/>
       <c r="G925" s="8"/>
     </row>
-    <row r="926" spans="1:7" ht="15.75" customHeight="1">
+    <row r="926" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="6"/>
       <c r="B926" s="6"/>
       <c r="C926" s="7"/>
       <c r="D926" s="8"/>
       <c r="G926" s="8"/>
     </row>
-    <row r="927" spans="1:7" ht="15.75" customHeight="1">
+    <row r="927" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
       <c r="C927" s="7"/>
       <c r="D927" s="8"/>
       <c r="G927" s="8"/>
     </row>
-    <row r="928" spans="1:7" ht="15.75" customHeight="1">
+    <row r="928" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="6"/>
       <c r="B928" s="6"/>
       <c r="C928" s="7"/>
       <c r="D928" s="8"/>
       <c r="G928" s="8"/>
     </row>
-    <row r="929" spans="1:7" ht="15.75" customHeight="1">
+    <row r="929" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
       <c r="C929" s="7"/>
       <c r="D929" s="8"/>
       <c r="G929" s="8"/>
     </row>
-    <row r="930" spans="1:7" ht="15.75" customHeight="1">
+    <row r="930" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="6"/>
       <c r="B930" s="6"/>
       <c r="C930" s="7"/>
       <c r="D930" s="8"/>
       <c r="G930" s="8"/>
     </row>
-    <row r="931" spans="1:7" ht="15.75" customHeight="1">
+    <row r="931" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
       <c r="C931" s="7"/>
       <c r="D931" s="8"/>
       <c r="G931" s="8"/>
     </row>
-    <row r="932" spans="1:7" ht="15.75" customHeight="1">
+    <row r="932" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="6"/>
       <c r="B932" s="6"/>
       <c r="C932" s="7"/>
       <c r="D932" s="8"/>
       <c r="G932" s="8"/>
     </row>
-    <row r="933" spans="1:7" ht="15.75" customHeight="1">
+    <row r="933" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
       <c r="C933" s="7"/>
       <c r="D933" s="8"/>
       <c r="G933" s="8"/>
     </row>
-    <row r="934" spans="1:7" ht="15.75" customHeight="1">
+    <row r="934" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="6"/>
       <c r="B934" s="6"/>
       <c r="C934" s="7"/>
       <c r="D934" s="8"/>
       <c r="G934" s="8"/>
     </row>
-    <row r="935" spans="1:7" ht="15.75" customHeight="1">
+    <row r="935" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="7"/>
       <c r="D935" s="8"/>
       <c r="G935" s="8"/>
     </row>
-    <row r="936" spans="1:7" ht="15.75" customHeight="1">
+    <row r="936" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="6"/>
       <c r="B936" s="6"/>
       <c r="C936" s="7"/>
       <c r="D936" s="8"/>
       <c r="G936" s="8"/>
     </row>
-    <row r="937" spans="1:7" ht="15.75" customHeight="1">
+    <row r="937" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
       <c r="C937" s="7"/>
       <c r="D937" s="8"/>
       <c r="G937" s="8"/>
     </row>
-    <row r="938" spans="1:7" ht="15.75" customHeight="1">
+    <row r="938" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="6"/>
       <c r="B938" s="6"/>
       <c r="C938" s="7"/>
       <c r="D938" s="8"/>
       <c r="G938" s="8"/>
     </row>
-    <row r="939" spans="1:7" ht="15.75" customHeight="1">
+    <row r="939" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
       <c r="C939" s="7"/>
       <c r="D939" s="8"/>
       <c r="G939" s="8"/>
     </row>
-    <row r="940" spans="1:7" ht="15.75" customHeight="1">
+    <row r="940" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="6"/>
       <c r="B940" s="6"/>
       <c r="C940" s="7"/>
       <c r="D940" s="8"/>
       <c r="G940" s="8"/>
     </row>
-    <row r="941" spans="1:7" ht="15.75" customHeight="1">
+    <row r="941" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
       <c r="C941" s="7"/>
       <c r="D941" s="8"/>
       <c r="G941" s="8"/>
     </row>
-    <row r="942" spans="1:7" ht="15.75" customHeight="1">
+    <row r="942" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="6"/>
       <c r="B942" s="6"/>
       <c r="C942" s="7"/>
       <c r="D942" s="8"/>
       <c r="G942" s="8"/>
     </row>
-    <row r="943" spans="1:7" ht="15.75" customHeight="1">
+    <row r="943" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
       <c r="C943" s="7"/>
       <c r="D943" s="8"/>
       <c r="G943" s="8"/>
     </row>
-    <row r="944" spans="1:7" ht="15.75" customHeight="1">
+    <row r="944" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="6"/>
       <c r="B944" s="6"/>
       <c r="C944" s="7"/>
       <c r="D944" s="8"/>
       <c r="G944" s="8"/>
     </row>
-    <row r="945" spans="1:7" ht="15.75" customHeight="1">
+    <row r="945" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
       <c r="C945" s="7"/>
       <c r="D945" s="8"/>
       <c r="G945" s="8"/>
     </row>
-    <row r="946" spans="1:7" ht="15.75" customHeight="1">
+    <row r="946" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="7"/>
       <c r="D946" s="8"/>
       <c r="G946" s="8"/>
     </row>
-    <row r="947" spans="1:7" ht="15.75" customHeight="1">
+    <row r="947" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
       <c r="C947" s="7"/>
       <c r="D947" s="8"/>
       <c r="G947" s="8"/>
     </row>
-    <row r="948" spans="1:7" ht="15.75" customHeight="1">
+    <row r="948" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="6"/>
       <c r="B948" s="6"/>
       <c r="C948" s="7"/>
       <c r="D948" s="8"/>
       <c r="G948" s="8"/>
     </row>
-    <row r="949" spans="1:7" ht="15.75" customHeight="1">
+    <row r="949" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
       <c r="C949" s="7"/>
       <c r="D949" s="8"/>
       <c r="G949" s="8"/>
     </row>
-    <row r="950" spans="1:7" ht="15.75" customHeight="1">
+    <row r="950" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="6"/>
       <c r="B950" s="6"/>
       <c r="C950" s="7"/>
       <c r="D950" s="8"/>
       <c r="G950" s="8"/>
     </row>
-    <row r="951" spans="1:7" ht="15.75" customHeight="1">
+    <row r="951" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="6"/>
       <c r="B951" s="6"/>
       <c r="C951" s="7"/>
       <c r="D951" s="8"/>
       <c r="G951" s="8"/>
     </row>
-    <row r="952" spans="1:7" ht="15.75" customHeight="1">
+    <row r="952" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="6"/>
       <c r="B952" s="6"/>
       <c r="C952" s="7"/>
       <c r="D952" s="8"/>
       <c r="G952" s="8"/>
     </row>
-    <row r="953" spans="1:7" ht="15.75" customHeight="1">
+    <row r="953" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="6"/>
       <c r="B953" s="6"/>
       <c r="C953" s="7"/>
       <c r="D953" s="8"/>
       <c r="G953" s="8"/>
     </row>
-    <row r="954" spans="1:7" ht="15.75" customHeight="1">
+    <row r="954" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="6"/>
       <c r="B954" s="6"/>
       <c r="C954" s="7"/>
       <c r="D954" s="8"/>
       <c r="G954" s="8"/>
     </row>
-    <row r="955" spans="1:7" ht="15.75" customHeight="1">
+    <row r="955" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="6"/>
       <c r="B955" s="6"/>
       <c r="C955" s="7"/>
       <c r="D955" s="8"/>
       <c r="G955" s="8"/>
     </row>
-    <row r="956" spans="1:7" ht="15.75" customHeight="1">
+    <row r="956" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="6"/>
       <c r="B956" s="6"/>
       <c r="C956" s="7"/>
       <c r="D956" s="8"/>
       <c r="G956" s="8"/>
     </row>
-    <row r="957" spans="1:7" ht="15.75" customHeight="1">
+    <row r="957" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="6"/>
       <c r="B957" s="6"/>
       <c r="C957" s="7"/>
       <c r="D957" s="8"/>
       <c r="G957" s="8"/>
     </row>
-    <row r="958" spans="1:7" ht="15.75" customHeight="1">
+    <row r="958" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
       <c r="C958" s="7"/>
       <c r="D958" s="8"/>
       <c r="G958" s="8"/>
     </row>
-    <row r="959" spans="1:7" ht="15.75" customHeight="1">
+    <row r="959" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="6"/>
       <c r="B959" s="6"/>
       <c r="C959" s="7"/>
       <c r="D959" s="8"/>
       <c r="G959" s="8"/>
     </row>
-    <row r="960" spans="1:7" ht="15.75" customHeight="1">
+    <row r="960" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="6"/>
       <c r="B960" s="6"/>
       <c r="C960" s="7"/>
       <c r="D960" s="8"/>
       <c r="G960" s="8"/>
     </row>
-    <row r="961" spans="1:7" ht="15.75" customHeight="1">
+    <row r="961" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="6"/>
       <c r="B961" s="6"/>
       <c r="C961" s="7"/>
       <c r="D961" s="8"/>
       <c r="G961" s="8"/>
     </row>
-    <row r="962" spans="1:7" ht="15.75" customHeight="1">
+    <row r="962" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="6"/>
       <c r="B962" s="6"/>
       <c r="C962" s="7"/>
       <c r="D962" s="8"/>
       <c r="G962" s="8"/>
     </row>
-    <row r="963" spans="1:7" ht="15.75" customHeight="1">
+    <row r="963" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="6"/>
       <c r="B963" s="6"/>
       <c r="C963" s="7"/>
       <c r="D963" s="8"/>
       <c r="G963" s="8"/>
     </row>
-    <row r="964" spans="1:7" ht="15.75" customHeight="1">
+    <row r="964" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="6"/>
       <c r="B964" s="6"/>
       <c r="C964" s="7"/>
       <c r="D964" s="8"/>
       <c r="G964" s="8"/>
     </row>
-    <row r="965" spans="1:7" ht="15.75" customHeight="1">
+    <row r="965" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="6"/>
       <c r="B965" s="6"/>
       <c r="C965" s="7"/>
       <c r="D965" s="8"/>
       <c r="G965" s="8"/>
     </row>
-    <row r="966" spans="1:7" ht="15.75" customHeight="1">
+    <row r="966" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="6"/>
       <c r="B966" s="6"/>
       <c r="C966" s="7"/>
       <c r="D966" s="8"/>
       <c r="G966" s="8"/>
     </row>
-    <row r="967" spans="1:7" ht="15.75" customHeight="1">
+    <row r="967" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="6"/>
       <c r="B967" s="6"/>
       <c r="C967" s="7"/>
       <c r="D967" s="8"/>
       <c r="G967" s="8"/>
     </row>
-    <row r="968" spans="1:7" ht="15.75" customHeight="1">
+    <row r="968" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="6"/>
       <c r="B968" s="6"/>
       <c r="C968" s="7"/>
       <c r="D968" s="8"/>
       <c r="G968" s="8"/>
     </row>
-    <row r="969" spans="1:7" ht="15.75" customHeight="1">
+    <row r="969" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
       <c r="C969" s="7"/>
       <c r="D969" s="8"/>
       <c r="G969" s="8"/>
     </row>
-    <row r="970" spans="1:7" ht="15.75" customHeight="1">
+    <row r="970" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="6"/>
       <c r="B970" s="6"/>
       <c r="C970" s="7"/>
       <c r="D970" s="8"/>
       <c r="G970" s="8"/>
     </row>
-    <row r="971" spans="1:7" ht="15.75" customHeight="1">
+    <row r="971" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="6"/>
       <c r="B971" s="6"/>
       <c r="C971" s="7"/>
       <c r="D971" s="8"/>
       <c r="G971" s="8"/>
     </row>
-    <row r="972" spans="1:7" ht="15.75" customHeight="1">
+    <row r="972" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="6"/>
       <c r="B972" s="6"/>
       <c r="C972" s="7"/>
       <c r="D972" s="8"/>
       <c r="G972" s="8"/>
     </row>
-    <row r="973" spans="1:7" ht="15.75" customHeight="1">
+    <row r="973" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="6"/>
       <c r="B973" s="6"/>
       <c r="C973" s="7"/>
       <c r="D973" s="8"/>
       <c r="G973" s="8"/>
     </row>
-    <row r="974" spans="1:7" ht="15.75" customHeight="1">
+    <row r="974" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="6"/>
       <c r="B974" s="6"/>
       <c r="C974" s="7"/>
       <c r="D974" s="8"/>
       <c r="G974" s="8"/>
     </row>
-    <row r="975" spans="1:7" ht="15.75" customHeight="1">
+    <row r="975" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="6"/>
       <c r="B975" s="6"/>
       <c r="C975" s="7"/>
       <c r="D975" s="8"/>
       <c r="G975" s="8"/>
     </row>
-    <row r="976" spans="1:7" ht="15.75" customHeight="1">
+    <row r="976" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="6"/>
       <c r="B976" s="6"/>
       <c r="C976" s="7"/>
       <c r="D976" s="8"/>
       <c r="G976" s="8"/>
     </row>
-    <row r="977" spans="1:7" ht="15.75" customHeight="1">
+    <row r="977" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="6"/>
       <c r="B977" s="6"/>
       <c r="C977" s="7"/>
       <c r="D977" s="8"/>
       <c r="G977" s="8"/>
     </row>
-    <row r="978" spans="1:7" ht="15.75" customHeight="1">
+    <row r="978" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="6"/>
       <c r="B978" s="6"/>
       <c r="C978" s="7"/>
       <c r="D978" s="8"/>
       <c r="G978" s="8"/>
     </row>
-    <row r="979" spans="1:7" ht="15.75" customHeight="1">
+    <row r="979" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="6"/>
       <c r="B979" s="6"/>
       <c r="C979" s="7"/>
       <c r="D979" s="8"/>
       <c r="G979" s="8"/>
     </row>
-    <row r="980" spans="1:7" ht="15.75" customHeight="1">
+    <row r="980" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="6"/>
       <c r="B980" s="6"/>
       <c r="C980" s="7"/>
       <c r="D980" s="8"/>
       <c r="G980" s="8"/>
     </row>
-    <row r="981" spans="1:7" ht="15.75" customHeight="1">
+    <row r="981" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
       <c r="C981" s="7"/>
       <c r="D981" s="8"/>
       <c r="G981" s="8"/>
     </row>
-    <row r="982" spans="1:7" ht="15.75" customHeight="1">
+    <row r="982" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="6"/>
       <c r="B982" s="6"/>
       <c r="C982" s="7"/>
       <c r="D982" s="8"/>
       <c r="G982" s="8"/>
     </row>
-    <row r="983" spans="1:7" ht="15.75" customHeight="1">
+    <row r="983" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="6"/>
       <c r="B983" s="6"/>
       <c r="C983" s="7"/>
       <c r="D983" s="8"/>
       <c r="G983" s="8"/>
     </row>
-    <row r="984" spans="1:7" ht="15.75" customHeight="1">
+    <row r="984" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="6"/>
       <c r="B984" s="6"/>
       <c r="C984" s="7"/>
       <c r="D984" s="8"/>
       <c r="G984" s="8"/>
     </row>
-    <row r="985" spans="1:7" ht="15.75" customHeight="1">
+    <row r="985" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="6"/>
       <c r="B985" s="6"/>
       <c r="C985" s="7"/>
       <c r="D985" s="8"/>
       <c r="G985" s="8"/>
     </row>
-    <row r="986" spans="1:7" ht="15.75" customHeight="1">
+    <row r="986" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="6"/>
       <c r="B986" s="6"/>
       <c r="C986" s="7"/>
       <c r="D986" s="8"/>
       <c r="G986" s="8"/>
     </row>
-    <row r="987" spans="1:7" ht="15.75" customHeight="1">
+    <row r="987" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="6"/>
       <c r="B987" s="6"/>
       <c r="C987" s="7"/>
       <c r="D987" s="8"/>
       <c r="G987" s="8"/>
     </row>
-    <row r="988" spans="1:7" ht="15.75" customHeight="1">
+    <row r="988" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="6"/>
       <c r="B988" s="6"/>
       <c r="C988" s="7"/>
       <c r="D988" s="8"/>
       <c r="G988" s="8"/>
     </row>
-    <row r="989" spans="1:7" ht="15.75" customHeight="1">
+    <row r="989" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="6"/>
       <c r="B989" s="6"/>
       <c r="C989" s="7"/>
       <c r="D989" s="8"/>
       <c r="G989" s="8"/>
     </row>
-    <row r="990" spans="1:7" ht="15.75" customHeight="1">
+    <row r="990" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="6"/>
       <c r="B990" s="6"/>
       <c r="C990" s="7"/>
       <c r="D990" s="8"/>
       <c r="G990" s="8"/>
     </row>
-    <row r="991" spans="1:7" ht="15.75" customHeight="1">
+    <row r="991" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="6"/>
       <c r="B991" s="6"/>
       <c r="C991" s="7"/>
       <c r="D991" s="8"/>
       <c r="G991" s="8"/>
     </row>
-    <row r="992" spans="1:7" ht="15.75" customHeight="1">
+    <row r="992" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="6"/>
       <c r="B992" s="6"/>
       <c r="C992" s="7"/>
       <c r="D992" s="8"/>
       <c r="G992" s="8"/>
     </row>
-    <row r="993" spans="1:7" ht="15.75" customHeight="1">
+    <row r="993" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="6"/>
       <c r="B993" s="6"/>
       <c r="C993" s="7"/>
       <c r="D993" s="8"/>
       <c r="G993" s="8"/>
     </row>
-    <row r="994" spans="1:7" ht="15.75" customHeight="1">
+    <row r="994" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="6"/>
       <c r="B994" s="6"/>
       <c r="C994" s="7"/>
       <c r="D994" s="8"/>
       <c r="G994" s="8"/>
     </row>
-    <row r="995" spans="1:7" ht="15.75" customHeight="1">
+    <row r="995" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="6"/>
       <c r="B995" s="6"/>
       <c r="C995" s="7"/>
       <c r="D995" s="8"/>
       <c r="G995" s="8"/>
     </row>
-    <row r="996" spans="1:7" ht="15.75" customHeight="1">
+    <row r="996" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="6"/>
       <c r="B996" s="6"/>
       <c r="C996" s="7"/>
       <c r="D996" s="8"/>
       <c r="G996" s="8"/>
     </row>
-    <row r="997" spans="1:7" ht="15.75" customHeight="1">
+    <row r="997" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="6"/>
       <c r="B997" s="6"/>
       <c r="C997" s="7"/>
       <c r="D997" s="8"/>
       <c r="G997" s="8"/>
     </row>
-    <row r="998" spans="1:7" ht="15.75" customHeight="1">
+    <row r="998" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="6"/>
       <c r="B998" s="6"/>
       <c r="C998" s="7"/>
       <c r="D998" s="8"/>
       <c r="G998" s="8"/>
     </row>
-    <row r="999" spans="1:7" ht="15.75" customHeight="1">
+    <row r="999" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="6"/>
       <c r="B999" s="6"/>
       <c r="C999" s="7"/>
       <c r="D999" s="8"/>
       <c r="G999" s="8"/>
     </row>
-    <row r="1000" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1000" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="6"/>
       <c r="B1000" s="6"/>
       <c r="C1000" s="7"/>
@@ -12795,64 +12835,65 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A21" r:id="rId5"/>
-    <hyperlink ref="A22" r:id="rId6"/>
-    <hyperlink ref="A23" r:id="rId7"/>
-    <hyperlink ref="A24" r:id="rId8"/>
-    <hyperlink ref="A25" r:id="rId9"/>
-    <hyperlink ref="A26" r:id="rId10"/>
-    <hyperlink ref="A37" r:id="rId11"/>
-    <hyperlink ref="A38" r:id="rId12"/>
-    <hyperlink ref="A42" r:id="rId13"/>
-    <hyperlink ref="A43" r:id="rId14"/>
-    <hyperlink ref="A44" r:id="rId15"/>
-    <hyperlink ref="A56" r:id="rId16"/>
-    <hyperlink ref="A60" r:id="rId17"/>
-    <hyperlink ref="A62" r:id="rId18"/>
-    <hyperlink ref="A63" r:id="rId19"/>
-    <hyperlink ref="A69" r:id="rId20"/>
-    <hyperlink ref="A70" r:id="rId21"/>
-    <hyperlink ref="A73" r:id="rId22"/>
-    <hyperlink ref="A75" r:id="rId23"/>
-    <hyperlink ref="A76" r:id="rId24"/>
-    <hyperlink ref="A77" r:id="rId25"/>
-    <hyperlink ref="A89" r:id="rId26"/>
-    <hyperlink ref="A91" r:id="rId27"/>
-    <hyperlink ref="A92" r:id="rId28"/>
-    <hyperlink ref="A97" r:id="rId29"/>
-    <hyperlink ref="A101" r:id="rId30"/>
-    <hyperlink ref="A106" r:id="rId31"/>
-    <hyperlink ref="A8" r:id="rId32"/>
-    <hyperlink ref="A9" r:id="rId33"/>
-    <hyperlink ref="A10" r:id="rId34"/>
-    <hyperlink ref="A11" r:id="rId35"/>
-    <hyperlink ref="A12" r:id="rId36"/>
-    <hyperlink ref="A13" r:id="rId37"/>
-    <hyperlink ref="A14" r:id="rId38"/>
-    <hyperlink ref="A15" r:id="rId39"/>
-    <hyperlink ref="A16" r:id="rId40"/>
-    <hyperlink ref="A17" r:id="rId41"/>
-    <hyperlink ref="A18" r:id="rId42"/>
-    <hyperlink ref="A19" r:id="rId43"/>
-    <hyperlink ref="A20" r:id="rId44"/>
-    <hyperlink ref="A27" r:id="rId45"/>
-    <hyperlink ref="A28" r:id="rId46"/>
-    <hyperlink ref="A29" r:id="rId47"/>
-    <hyperlink ref="A30" r:id="rId48"/>
-    <hyperlink ref="A71" r:id="rId49"/>
-    <hyperlink ref="A72" r:id="rId50"/>
-    <hyperlink ref="A78" r:id="rId51"/>
-    <hyperlink ref="A94" r:id="rId52"/>
-    <hyperlink ref="A138" r:id="rId53"/>
-    <hyperlink ref="A61" r:id="rId54"/>
-    <hyperlink ref="A64" r:id="rId55"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A37" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A42" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A43" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A56" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A60" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A62" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A63" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A69" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A70" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A73" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A75" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A76" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A77" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A89" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A91" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A92" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A97" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A101" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A106" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A8" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A9" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A13" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A19" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A20" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A27" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A28" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A29" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A30" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A71" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A72" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A78" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A94" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A138" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A61" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A140" r:id="rId56" xr:uid="{79EF59F3-BAF5-4DDB-9FEF-71FC35C4B08F}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId56"/>
-  <drawing r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId57"/>
+  <drawing r:id="rId58"/>
 </worksheet>
 </file>